--- a/Extracting_information_from_PDFs/data/Example.xlsx
+++ b/Extracting_information_from_PDFs/data/Example.xlsx
@@ -23746,7 +23746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF356"/>
+  <dimension ref="A1:AF372"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
@@ -36891,1752 +36891,5111 @@
       <c r="Q264" s="29" t="n"/>
     </row>
     <row r="265">
-      <c r="A265" s="9" t="n"/>
-      <c r="B265" s="9" t="n"/>
-      <c r="C265" s="9" t="n"/>
-      <c r="D265" s="9" t="n"/>
-      <c r="E265" s="9" t="n"/>
+      <c r="A265" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B265" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C265" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D265" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E265" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F265" s="9" t="n"/>
       <c r="G265" s="9" t="n"/>
       <c r="H265" s="9" t="n"/>
-      <c r="I265" s="9" t="n"/>
+      <c r="I265" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J265" s="9" t="n"/>
-      <c r="K265" s="9" t="n"/>
+      <c r="K265" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L265" s="24" t="n"/>
-      <c r="M265" s="24" t="n"/>
+      <c r="M265" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N265" s="29" t="n"/>
       <c r="O265" s="29" t="n"/>
       <c r="P265" s="29" t="n"/>
       <c r="Q265" s="29" t="n"/>
     </row>
     <row r="266">
-      <c r="A266" s="9" t="n"/>
-      <c r="B266" s="9" t="n"/>
-      <c r="C266" s="9" t="n"/>
+      <c r="A266" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B266" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C266" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D266" s="9" t="n"/>
-      <c r="E266" s="9" t="n"/>
+      <c r="E266" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F266" s="9" t="n"/>
       <c r="G266" s="9" t="n"/>
       <c r="H266" s="9" t="n"/>
-      <c r="I266" s="9" t="n"/>
+      <c r="I266" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J266" s="9" t="n"/>
-      <c r="K266" s="9" t="n"/>
+      <c r="K266" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L266" s="24" t="n"/>
-      <c r="M266" s="24" t="n"/>
+      <c r="M266" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N266" s="29" t="n"/>
       <c r="O266" s="29" t="n"/>
       <c r="P266" s="29" t="n"/>
       <c r="Q266" s="29" t="n"/>
     </row>
     <row r="267">
-      <c r="A267" s="9" t="n"/>
-      <c r="B267" s="9" t="n"/>
-      <c r="C267" s="9" t="n"/>
-      <c r="D267" s="9" t="n"/>
-      <c r="E267" s="9" t="n"/>
+      <c r="A267" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B267" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C267" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D267" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E267" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F267" s="9" t="n"/>
       <c r="G267" s="9" t="n"/>
       <c r="H267" s="9" t="n"/>
-      <c r="I267" s="9" t="n"/>
+      <c r="I267" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J267" s="9" t="n"/>
-      <c r="K267" s="9" t="n"/>
+      <c r="K267" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L267" s="24" t="n"/>
-      <c r="M267" s="24" t="n"/>
+      <c r="M267" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N267" s="29" t="n"/>
       <c r="O267" s="29" t="n"/>
       <c r="P267" s="29" t="n"/>
       <c r="Q267" s="29" t="n"/>
     </row>
     <row r="268">
-      <c r="A268" s="9" t="n"/>
-      <c r="B268" s="9" t="n"/>
-      <c r="C268" s="9" t="n"/>
-      <c r="D268" s="9" t="n"/>
-      <c r="E268" s="9" t="n"/>
+      <c r="A268" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B268" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C268" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D268" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E268" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F268" s="9" t="n"/>
       <c r="G268" s="9" t="n"/>
       <c r="H268" s="9" t="n"/>
-      <c r="I268" s="9" t="n"/>
+      <c r="I268" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J268" s="9" t="n"/>
-      <c r="K268" s="9" t="n"/>
+      <c r="K268" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L268" s="24" t="n"/>
-      <c r="M268" s="24" t="n"/>
+      <c r="M268" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N268" s="29" t="n"/>
       <c r="O268" s="29" t="n"/>
       <c r="P268" s="29" t="n"/>
       <c r="Q268" s="29" t="n"/>
     </row>
     <row r="269">
-      <c r="A269" s="9" t="n"/>
-      <c r="B269" s="9" t="n"/>
-      <c r="C269" s="9" t="n"/>
+      <c r="A269" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B269" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C269" s="9" t="inlineStr"/>
       <c r="D269" s="9" t="n"/>
       <c r="E269" s="9" t="n"/>
       <c r="F269" s="9" t="n"/>
       <c r="G269" s="9" t="n"/>
       <c r="H269" s="9" t="n"/>
-      <c r="I269" s="9" t="n"/>
+      <c r="I269" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J269" s="9" t="n"/>
-      <c r="K269" s="9" t="n"/>
+      <c r="K269" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L269" s="24" t="n"/>
-      <c r="M269" s="24" t="n"/>
+      <c r="M269" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N269" s="29" t="n"/>
       <c r="O269" s="29" t="n"/>
       <c r="P269" s="29" t="n"/>
       <c r="Q269" s="29" t="n"/>
     </row>
     <row r="270">
-      <c r="A270" s="9" t="n"/>
-      <c r="B270" s="9" t="n"/>
-      <c r="C270" s="9" t="n"/>
-      <c r="D270" s="9" t="n"/>
-      <c r="E270" s="9" t="n"/>
+      <c r="A270" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B270" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C270" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D270" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E270" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F270" s="9" t="n"/>
       <c r="G270" s="9" t="n"/>
       <c r="H270" s="9" t="n"/>
-      <c r="I270" s="9" t="n"/>
+      <c r="I270" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J270" s="9" t="n"/>
-      <c r="K270" s="9" t="n"/>
+      <c r="K270" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L270" s="24" t="n"/>
-      <c r="M270" s="24" t="n"/>
+      <c r="M270" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N270" s="29" t="n"/>
       <c r="O270" s="29" t="n"/>
       <c r="P270" s="29" t="n"/>
       <c r="Q270" s="29" t="n"/>
     </row>
     <row r="271">
-      <c r="A271" s="9" t="n"/>
-      <c r="B271" s="9" t="n"/>
-      <c r="C271" s="9" t="n"/>
-      <c r="D271" s="9" t="n"/>
-      <c r="E271" s="9" t="n"/>
+      <c r="A271" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B271" s="9" t="inlineStr">
+        <is>
+          <t>47°03′00°N, 84°25′00°W</t>
+        </is>
+      </c>
+      <c r="C271" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D271" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E271" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F271" s="9" t="n"/>
       <c r="G271" s="9" t="n"/>
       <c r="H271" s="9" t="n"/>
-      <c r="I271" s="9" t="n"/>
+      <c r="I271" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J271" s="9" t="n"/>
-      <c r="K271" s="9" t="n"/>
+      <c r="K271" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L271" s="24" t="n"/>
-      <c r="M271" s="24" t="n"/>
+      <c r="M271" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N271" s="29" t="n"/>
       <c r="O271" s="29" t="n"/>
       <c r="P271" s="29" t="n"/>
       <c r="Q271" s="29" t="n"/>
     </row>
     <row r="272">
-      <c r="A272" s="9" t="n"/>
-      <c r="B272" s="9" t="n"/>
-      <c r="C272" s="9" t="n"/>
-      <c r="D272" s="9" t="n"/>
-      <c r="E272" s="9" t="n"/>
+      <c r="A272" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B272" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C272" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D272" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E272" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F272" s="9" t="n"/>
       <c r="G272" s="9" t="n"/>
       <c r="H272" s="9" t="n"/>
-      <c r="I272" s="9" t="n"/>
+      <c r="I272" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J272" s="9" t="n"/>
-      <c r="K272" s="9" t="n"/>
+      <c r="K272" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L272" s="24" t="n"/>
-      <c r="M272" s="24" t="n"/>
+      <c r="M272" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N272" s="29" t="n"/>
       <c r="O272" s="29" t="n"/>
       <c r="P272" s="29" t="n"/>
       <c r="Q272" s="29" t="n"/>
     </row>
     <row r="273">
-      <c r="A273" s="9" t="n"/>
-      <c r="B273" s="9" t="n"/>
-      <c r="C273" s="9" t="n"/>
-      <c r="D273" s="9" t="n"/>
-      <c r="E273" s="9" t="n"/>
+      <c r="A273" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B273" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C273" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D273" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E273" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F273" s="9" t="n"/>
       <c r="G273" s="9" t="n"/>
       <c r="H273" s="9" t="n"/>
-      <c r="I273" s="9" t="n"/>
+      <c r="I273" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J273" s="9" t="n"/>
-      <c r="K273" s="9" t="n"/>
+      <c r="K273" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L273" s="24" t="n"/>
-      <c r="M273" s="24" t="n"/>
+      <c r="M273" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N273" s="29" t="n"/>
       <c r="O273" s="29" t="n"/>
       <c r="P273" s="29" t="n"/>
       <c r="Q273" s="29" t="n"/>
     </row>
     <row r="274">
-      <c r="A274" s="9" t="n"/>
-      <c r="B274" s="9" t="n"/>
-      <c r="C274" s="9" t="n"/>
+      <c r="A274" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B274" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C274" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D274" s="9" t="n"/>
-      <c r="E274" s="9" t="n"/>
+      <c r="E274" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F274" s="9" t="n"/>
       <c r="G274" s="9" t="n"/>
       <c r="H274" s="9" t="n"/>
-      <c r="I274" s="9" t="n"/>
+      <c r="I274" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J274" s="9" t="n"/>
-      <c r="K274" s="9" t="n"/>
+      <c r="K274" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L274" s="24" t="n"/>
-      <c r="M274" s="24" t="n"/>
+      <c r="M274" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N274" s="29" t="n"/>
       <c r="O274" s="29" t="n"/>
       <c r="P274" s="29" t="n"/>
       <c r="Q274" s="29" t="n"/>
     </row>
     <row r="275">
-      <c r="A275" s="9" t="n"/>
-      <c r="B275" s="9" t="n"/>
-      <c r="C275" s="9" t="n"/>
-      <c r="D275" s="9" t="n"/>
-      <c r="E275" s="9" t="n"/>
+      <c r="A275" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B275" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C275" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D275" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E275" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F275" s="9" t="n"/>
       <c r="G275" s="9" t="n"/>
       <c r="H275" s="9" t="n"/>
-      <c r="I275" s="9" t="n"/>
+      <c r="I275" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J275" s="9" t="n"/>
-      <c r="K275" s="9" t="n"/>
+      <c r="K275" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L275" s="24" t="n"/>
-      <c r="M275" s="24" t="n"/>
+      <c r="M275" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N275" s="29" t="n"/>
       <c r="O275" s="29" t="n"/>
       <c r="P275" s="29" t="n"/>
       <c r="Q275" s="29" t="n"/>
     </row>
     <row r="276">
-      <c r="A276" s="9" t="n"/>
-      <c r="B276" s="9" t="n"/>
-      <c r="C276" s="9" t="n"/>
-      <c r="D276" s="9" t="n"/>
-      <c r="E276" s="9" t="n"/>
+      <c r="A276" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B276" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C276" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D276" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E276" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F276" s="9" t="n"/>
       <c r="G276" s="9" t="n"/>
       <c r="H276" s="9" t="n"/>
-      <c r="I276" s="9" t="n"/>
+      <c r="I276" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J276" s="9" t="n"/>
-      <c r="K276" s="9" t="n"/>
+      <c r="K276" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L276" s="24" t="n"/>
-      <c r="M276" s="24" t="n"/>
+      <c r="M276" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N276" s="29" t="n"/>
       <c r="O276" s="29" t="n"/>
       <c r="P276" s="29" t="n"/>
       <c r="Q276" s="29" t="n"/>
     </row>
     <row r="277">
-      <c r="A277" s="9" t="n"/>
-      <c r="B277" s="9" t="n"/>
-      <c r="C277" s="9" t="n"/>
+      <c r="A277" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B277" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C277" s="9" t="inlineStr"/>
       <c r="D277" s="9" t="n"/>
       <c r="E277" s="9" t="n"/>
       <c r="F277" s="9" t="n"/>
       <c r="G277" s="9" t="n"/>
       <c r="H277" s="9" t="n"/>
-      <c r="I277" s="9" t="n"/>
+      <c r="I277" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J277" s="9" t="n"/>
-      <c r="K277" s="9" t="n"/>
+      <c r="K277" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L277" s="24" t="n"/>
-      <c r="M277" s="24" t="n"/>
+      <c r="M277" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N277" s="29" t="n"/>
       <c r="O277" s="29" t="n"/>
       <c r="P277" s="29" t="n"/>
       <c r="Q277" s="29" t="n"/>
     </row>
     <row r="278">
-      <c r="A278" s="9" t="n"/>
-      <c r="B278" s="9" t="n"/>
-      <c r="C278" s="9" t="n"/>
-      <c r="D278" s="9" t="n"/>
-      <c r="E278" s="9" t="n"/>
+      <c r="A278" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B278" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C278" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D278" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E278" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F278" s="9" t="n"/>
       <c r="G278" s="9" t="n"/>
       <c r="H278" s="9" t="n"/>
-      <c r="I278" s="9" t="n"/>
+      <c r="I278" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J278" s="9" t="n"/>
-      <c r="K278" s="9" t="n"/>
+      <c r="K278" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L278" s="24" t="n"/>
-      <c r="M278" s="24" t="n"/>
+      <c r="M278" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N278" s="29" t="n"/>
       <c r="O278" s="29" t="n"/>
       <c r="P278" s="29" t="n"/>
       <c r="Q278" s="29" t="n"/>
     </row>
     <row r="279">
-      <c r="A279" s="9" t="n"/>
-      <c r="B279" s="9" t="n"/>
-      <c r="C279" s="9" t="n"/>
-      <c r="D279" s="9" t="n"/>
-      <c r="E279" s="9" t="n"/>
+      <c r="A279" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B279" s="9" t="inlineStr">
+        <is>
+          <t>84°25′00°W, 47°03′00°N</t>
+        </is>
+      </c>
+      <c r="C279" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D279" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E279" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F279" s="9" t="n"/>
       <c r="G279" s="9" t="n"/>
       <c r="H279" s="9" t="n"/>
-      <c r="I279" s="9" t="n"/>
+      <c r="I279" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J279" s="9" t="n"/>
-      <c r="K279" s="9" t="n"/>
+      <c r="K279" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L279" s="24" t="n"/>
-      <c r="M279" s="24" t="n"/>
+      <c r="M279" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N279" s="29" t="n"/>
       <c r="O279" s="29" t="n"/>
       <c r="P279" s="29" t="n"/>
       <c r="Q279" s="29" t="n"/>
     </row>
     <row r="280">
-      <c r="A280" s="9" t="n"/>
-      <c r="B280" s="9" t="n"/>
-      <c r="C280" s="9" t="n"/>
-      <c r="D280" s="9" t="n"/>
-      <c r="E280" s="9" t="n"/>
+      <c r="A280" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B280" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C280" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D280" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E280" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F280" s="9" t="n"/>
       <c r="G280" s="9" t="n"/>
       <c r="H280" s="9" t="n"/>
-      <c r="I280" s="9" t="n"/>
+      <c r="I280" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J280" s="9" t="n"/>
-      <c r="K280" s="9" t="n"/>
+      <c r="K280" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L280" s="24" t="n"/>
-      <c r="M280" s="24" t="n"/>
+      <c r="M280" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N280" s="29" t="n"/>
       <c r="O280" s="29" t="n"/>
       <c r="P280" s="29" t="n"/>
       <c r="Q280" s="29" t="n"/>
     </row>
     <row r="281">
-      <c r="A281" s="9" t="n"/>
-      <c r="B281" s="9" t="n"/>
-      <c r="C281" s="9" t="n"/>
-      <c r="D281" s="9" t="n"/>
-      <c r="E281" s="9" t="n"/>
+      <c r="A281" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B281" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C281" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D281" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E281" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F281" s="9" t="n"/>
       <c r="G281" s="9" t="n"/>
       <c r="H281" s="9" t="n"/>
-      <c r="I281" s="9" t="n"/>
+      <c r="I281" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J281" s="9" t="n"/>
-      <c r="K281" s="9" t="n"/>
+      <c r="K281" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L281" s="24" t="n"/>
-      <c r="M281" s="24" t="n"/>
+      <c r="M281" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N281" s="29" t="n"/>
       <c r="O281" s="29" t="n"/>
       <c r="P281" s="29" t="n"/>
       <c r="Q281" s="29" t="n"/>
     </row>
     <row r="282">
-      <c r="A282" s="9" t="n"/>
-      <c r="B282" s="9" t="n"/>
-      <c r="C282" s="9" t="n"/>
+      <c r="A282" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B282" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C282" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D282" s="9" t="n"/>
-      <c r="E282" s="9" t="n"/>
+      <c r="E282" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F282" s="9" t="n"/>
       <c r="G282" s="9" t="n"/>
       <c r="H282" s="9" t="n"/>
-      <c r="I282" s="9" t="n"/>
+      <c r="I282" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J282" s="9" t="n"/>
-      <c r="K282" s="9" t="n"/>
+      <c r="K282" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L282" s="24" t="n"/>
-      <c r="M282" s="24" t="n"/>
+      <c r="M282" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N282" s="29" t="n"/>
       <c r="O282" s="29" t="n"/>
       <c r="P282" s="29" t="n"/>
       <c r="Q282" s="29" t="n"/>
     </row>
     <row r="283">
-      <c r="A283" s="9" t="n"/>
-      <c r="B283" s="9" t="n"/>
-      <c r="C283" s="9" t="n"/>
-      <c r="D283" s="9" t="n"/>
-      <c r="E283" s="9" t="n"/>
+      <c r="A283" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B283" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C283" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D283" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E283" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F283" s="9" t="n"/>
       <c r="G283" s="9" t="n"/>
       <c r="H283" s="9" t="n"/>
-      <c r="I283" s="9" t="n"/>
+      <c r="I283" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J283" s="9" t="n"/>
-      <c r="K283" s="9" t="n"/>
+      <c r="K283" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L283" s="24" t="n"/>
-      <c r="M283" s="24" t="n"/>
+      <c r="M283" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N283" s="29" t="n"/>
       <c r="O283" s="29" t="n"/>
       <c r="P283" s="29" t="n"/>
       <c r="Q283" s="29" t="n"/>
     </row>
     <row r="284">
-      <c r="A284" s="9" t="n"/>
-      <c r="B284" s="9" t="n"/>
-      <c r="C284" s="9" t="n"/>
-      <c r="D284" s="9" t="n"/>
-      <c r="E284" s="9" t="n"/>
+      <c r="A284" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B284" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C284" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D284" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E284" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F284" s="9" t="n"/>
       <c r="G284" s="9" t="n"/>
       <c r="H284" s="9" t="n"/>
-      <c r="I284" s="9" t="n"/>
+      <c r="I284" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J284" s="9" t="n"/>
-      <c r="K284" s="9" t="n"/>
+      <c r="K284" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L284" s="24" t="n"/>
-      <c r="M284" s="24" t="n"/>
+      <c r="M284" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N284" s="29" t="n"/>
       <c r="O284" s="29" t="n"/>
       <c r="P284" s="29" t="n"/>
       <c r="Q284" s="29" t="n"/>
     </row>
     <row r="285">
-      <c r="A285" s="9" t="n"/>
-      <c r="B285" s="9" t="n"/>
-      <c r="C285" s="9" t="n"/>
+      <c r="A285" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B285" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C285" s="9" t="inlineStr"/>
       <c r="D285" s="9" t="n"/>
       <c r="E285" s="9" t="n"/>
       <c r="F285" s="9" t="n"/>
       <c r="G285" s="9" t="n"/>
       <c r="H285" s="9" t="n"/>
-      <c r="I285" s="9" t="n"/>
+      <c r="I285" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J285" s="9" t="n"/>
-      <c r="K285" s="9" t="n"/>
+      <c r="K285" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L285" s="24" t="n"/>
-      <c r="M285" s="24" t="n"/>
+      <c r="M285" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N285" s="29" t="n"/>
       <c r="O285" s="29" t="n"/>
       <c r="P285" s="29" t="n"/>
       <c r="Q285" s="29" t="n"/>
     </row>
     <row r="286">
-      <c r="A286" s="9" t="n"/>
-      <c r="B286" s="9" t="n"/>
-      <c r="C286" s="9" t="n"/>
-      <c r="D286" s="9" t="n"/>
-      <c r="E286" s="9" t="n"/>
+      <c r="A286" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B286" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C286" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D286" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E286" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F286" s="9" t="n"/>
       <c r="G286" s="9" t="n"/>
       <c r="H286" s="9" t="n"/>
-      <c r="I286" s="9" t="n"/>
+      <c r="I286" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J286" s="9" t="n"/>
-      <c r="K286" s="9" t="n"/>
+      <c r="K286" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L286" s="24" t="n"/>
-      <c r="M286" s="24" t="n"/>
+      <c r="M286" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N286" s="29" t="n"/>
       <c r="O286" s="29" t="n"/>
       <c r="P286" s="29" t="n"/>
       <c r="Q286" s="29" t="n"/>
     </row>
     <row r="287">
-      <c r="A287" s="9" t="n"/>
-      <c r="B287" s="9" t="n"/>
-      <c r="C287" s="9" t="n"/>
-      <c r="D287" s="9" t="n"/>
-      <c r="E287" s="9" t="n"/>
+      <c r="A287" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B287" s="9" t="inlineStr">
+        <is>
+          <t>84°25′00°W, 47°03′00°N</t>
+        </is>
+      </c>
+      <c r="C287" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D287" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E287" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F287" s="9" t="n"/>
       <c r="G287" s="9" t="n"/>
       <c r="H287" s="9" t="n"/>
-      <c r="I287" s="9" t="n"/>
+      <c r="I287" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J287" s="9" t="n"/>
-      <c r="K287" s="9" t="n"/>
+      <c r="K287" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L287" s="24" t="n"/>
-      <c r="M287" s="24" t="n"/>
+      <c r="M287" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N287" s="29" t="n"/>
       <c r="O287" s="29" t="n"/>
       <c r="P287" s="29" t="n"/>
       <c r="Q287" s="29" t="n"/>
     </row>
     <row r="288">
-      <c r="A288" s="9" t="n"/>
-      <c r="B288" s="9" t="n"/>
-      <c r="C288" s="9" t="n"/>
-      <c r="D288" s="9" t="n"/>
-      <c r="E288" s="9" t="n"/>
+      <c r="A288" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B288" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C288" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D288" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E288" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F288" s="9" t="n"/>
       <c r="G288" s="9" t="n"/>
       <c r="H288" s="9" t="n"/>
-      <c r="I288" s="9" t="n"/>
+      <c r="I288" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J288" s="9" t="n"/>
-      <c r="K288" s="9" t="n"/>
+      <c r="K288" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L288" s="24" t="n"/>
-      <c r="M288" s="24" t="n"/>
+      <c r="M288" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N288" s="29" t="n"/>
       <c r="O288" s="29" t="n"/>
       <c r="P288" s="29" t="n"/>
       <c r="Q288" s="29" t="n"/>
     </row>
     <row r="289">
-      <c r="A289" s="9" t="n"/>
-      <c r="B289" s="9" t="n"/>
-      <c r="C289" s="9" t="n"/>
-      <c r="D289" s="9" t="n"/>
-      <c r="E289" s="9" t="n"/>
+      <c r="A289" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B289" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C289" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D289" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E289" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F289" s="9" t="n"/>
       <c r="G289" s="9" t="n"/>
       <c r="H289" s="9" t="n"/>
-      <c r="I289" s="9" t="n"/>
+      <c r="I289" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J289" s="9" t="n"/>
-      <c r="K289" s="9" t="n"/>
+      <c r="K289" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L289" s="24" t="n"/>
-      <c r="M289" s="24" t="n"/>
+      <c r="M289" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N289" s="29" t="n"/>
       <c r="O289" s="29" t="n"/>
       <c r="P289" s="29" t="n"/>
       <c r="Q289" s="29" t="n"/>
     </row>
     <row r="290">
-      <c r="A290" s="9" t="n"/>
-      <c r="B290" s="9" t="n"/>
-      <c r="C290" s="9" t="n"/>
+      <c r="A290" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B290" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C290" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D290" s="9" t="n"/>
-      <c r="E290" s="9" t="n"/>
+      <c r="E290" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F290" s="9" t="n"/>
       <c r="G290" s="9" t="n"/>
       <c r="H290" s="9" t="n"/>
-      <c r="I290" s="9" t="n"/>
+      <c r="I290" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J290" s="9" t="n"/>
-      <c r="K290" s="9" t="n"/>
+      <c r="K290" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L290" s="24" t="n"/>
-      <c r="M290" s="24" t="n"/>
+      <c r="M290" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N290" s="29" t="n"/>
       <c r="O290" s="29" t="n"/>
       <c r="P290" s="29" t="n"/>
       <c r="Q290" s="29" t="n"/>
     </row>
     <row r="291">
-      <c r="A291" s="9" t="n"/>
-      <c r="B291" s="9" t="n"/>
-      <c r="C291" s="9" t="n"/>
-      <c r="D291" s="9" t="n"/>
-      <c r="E291" s="9" t="n"/>
+      <c r="A291" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B291" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C291" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D291" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E291" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F291" s="9" t="n"/>
       <c r="G291" s="9" t="n"/>
       <c r="H291" s="9" t="n"/>
-      <c r="I291" s="9" t="n"/>
+      <c r="I291" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J291" s="9" t="n"/>
-      <c r="K291" s="9" t="n"/>
+      <c r="K291" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L291" s="24" t="n"/>
-      <c r="M291" s="24" t="n"/>
+      <c r="M291" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N291" s="29" t="n"/>
       <c r="O291" s="29" t="n"/>
       <c r="P291" s="29" t="n"/>
       <c r="Q291" s="29" t="n"/>
     </row>
     <row r="292">
-      <c r="A292" s="9" t="n"/>
-      <c r="B292" s="9" t="n"/>
-      <c r="C292" s="9" t="n"/>
-      <c r="D292" s="9" t="n"/>
-      <c r="E292" s="9" t="n"/>
+      <c r="A292" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B292" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C292" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D292" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E292" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F292" s="9" t="n"/>
       <c r="G292" s="9" t="n"/>
       <c r="H292" s="9" t="n"/>
-      <c r="I292" s="9" t="n"/>
+      <c r="I292" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J292" s="9" t="n"/>
-      <c r="K292" s="9" t="n"/>
+      <c r="K292" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L292" s="24" t="n"/>
-      <c r="M292" s="24" t="n"/>
+      <c r="M292" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N292" s="29" t="n"/>
       <c r="O292" s="29" t="n"/>
       <c r="P292" s="29" t="n"/>
       <c r="Q292" s="29" t="n"/>
     </row>
     <row r="293">
-      <c r="A293" s="9" t="n"/>
-      <c r="B293" s="9" t="n"/>
-      <c r="C293" s="9" t="n"/>
+      <c r="A293" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B293" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C293" s="9" t="inlineStr"/>
       <c r="D293" s="9" t="n"/>
       <c r="E293" s="9" t="n"/>
       <c r="F293" s="9" t="n"/>
       <c r="G293" s="9" t="n"/>
       <c r="H293" s="9" t="n"/>
-      <c r="I293" s="9" t="n"/>
+      <c r="I293" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J293" s="9" t="n"/>
-      <c r="K293" s="9" t="n"/>
+      <c r="K293" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L293" s="24" t="n"/>
-      <c r="M293" s="24" t="n"/>
+      <c r="M293" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N293" s="29" t="n"/>
       <c r="O293" s="29" t="n"/>
       <c r="P293" s="29" t="n"/>
       <c r="Q293" s="29" t="n"/>
     </row>
     <row r="294">
-      <c r="A294" s="9" t="n"/>
-      <c r="B294" s="9" t="n"/>
-      <c r="C294" s="9" t="n"/>
-      <c r="D294" s="9" t="n"/>
-      <c r="E294" s="9" t="n"/>
+      <c r="A294" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B294" s="9" t="inlineStr">
+        <is>
+          <t>4314402900N, 313504500E</t>
+        </is>
+      </c>
+      <c r="C294" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D294" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E294" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F294" s="9" t="n"/>
       <c r="G294" s="9" t="n"/>
       <c r="H294" s="9" t="n"/>
-      <c r="I294" s="9" t="n"/>
+      <c r="I294" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J294" s="9" t="n"/>
-      <c r="K294" s="9" t="n"/>
+      <c r="K294" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L294" s="24" t="n"/>
-      <c r="M294" s="24" t="n"/>
+      <c r="M294" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N294" s="29" t="n"/>
       <c r="O294" s="29" t="n"/>
       <c r="P294" s="29" t="n"/>
       <c r="Q294" s="29" t="n"/>
     </row>
     <row r="295">
-      <c r="A295" s="9" t="n"/>
-      <c r="B295" s="9" t="n"/>
-      <c r="C295" s="9" t="n"/>
-      <c r="D295" s="9" t="n"/>
-      <c r="E295" s="9" t="n"/>
+      <c r="A295" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B295" s="9" t="inlineStr">
+        <is>
+          <t>47°03′00°N, 84°25′00°W</t>
+        </is>
+      </c>
+      <c r="C295" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D295" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E295" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F295" s="9" t="n"/>
       <c r="G295" s="9" t="n"/>
       <c r="H295" s="9" t="n"/>
-      <c r="I295" s="9" t="n"/>
+      <c r="I295" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J295" s="9" t="n"/>
-      <c r="K295" s="9" t="n"/>
+      <c r="K295" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L295" s="24" t="n"/>
-      <c r="M295" s="24" t="n"/>
+      <c r="M295" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N295" s="29" t="n"/>
       <c r="O295" s="29" t="n"/>
       <c r="P295" s="29" t="n"/>
       <c r="Q295" s="29" t="n"/>
     </row>
     <row r="296">
-      <c r="A296" s="9" t="n"/>
-      <c r="B296" s="9" t="n"/>
-      <c r="C296" s="9" t="n"/>
-      <c r="D296" s="9" t="n"/>
-      <c r="E296" s="9" t="n"/>
+      <c r="A296" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B296" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C296" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D296" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E296" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F296" s="9" t="n"/>
       <c r="G296" s="9" t="n"/>
       <c r="H296" s="9" t="n"/>
-      <c r="I296" s="9" t="n"/>
+      <c r="I296" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J296" s="9" t="n"/>
-      <c r="K296" s="9" t="n"/>
+      <c r="K296" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L296" s="24" t="n"/>
-      <c r="M296" s="24" t="n"/>
+      <c r="M296" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N296" s="29" t="n"/>
       <c r="O296" s="29" t="n"/>
       <c r="P296" s="29" t="n"/>
       <c r="Q296" s="29" t="n"/>
     </row>
     <row r="297">
-      <c r="A297" s="9" t="n"/>
-      <c r="B297" s="9" t="n"/>
-      <c r="C297" s="9" t="n"/>
-      <c r="D297" s="9" t="n"/>
-      <c r="E297" s="9" t="n"/>
+      <c r="A297" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B297" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C297" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D297" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E297" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F297" s="9" t="n"/>
       <c r="G297" s="9" t="n"/>
       <c r="H297" s="9" t="n"/>
-      <c r="I297" s="9" t="n"/>
+      <c r="I297" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J297" s="9" t="n"/>
-      <c r="K297" s="9" t="n"/>
+      <c r="K297" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L297" s="24" t="n"/>
-      <c r="M297" s="24" t="n"/>
+      <c r="M297" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N297" s="29" t="n"/>
       <c r="O297" s="29" t="n"/>
       <c r="P297" s="29" t="n"/>
       <c r="Q297" s="29" t="n"/>
     </row>
     <row r="298">
-      <c r="A298" s="9" t="n"/>
-      <c r="B298" s="9" t="n"/>
-      <c r="C298" s="9" t="n"/>
+      <c r="A298" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B298" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C298" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D298" s="9" t="n"/>
-      <c r="E298" s="9" t="n"/>
+      <c r="E298" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F298" s="9" t="n"/>
       <c r="G298" s="9" t="n"/>
       <c r="H298" s="9" t="n"/>
-      <c r="I298" s="9" t="n"/>
+      <c r="I298" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J298" s="9" t="n"/>
-      <c r="K298" s="9" t="n"/>
+      <c r="K298" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L298" s="24" t="n"/>
-      <c r="M298" s="24" t="n"/>
+      <c r="M298" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N298" s="29" t="n"/>
       <c r="O298" s="29" t="n"/>
       <c r="P298" s="29" t="n"/>
       <c r="Q298" s="29" t="n"/>
     </row>
     <row r="299">
-      <c r="A299" s="9" t="n"/>
-      <c r="B299" s="9" t="n"/>
-      <c r="C299" s="9" t="n"/>
-      <c r="D299" s="9" t="n"/>
-      <c r="E299" s="9" t="n"/>
+      <c r="A299" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B299" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C299" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D299" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-2010, 1961-2017, 1981-2010</t>
+        </is>
+      </c>
+      <c r="E299" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F299" s="9" t="n"/>
       <c r="G299" s="9" t="n"/>
       <c r="H299" s="9" t="n"/>
-      <c r="I299" s="9" t="n"/>
+      <c r="I299" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J299" s="9" t="n"/>
-      <c r="K299" s="9" t="n"/>
+      <c r="K299" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L299" s="24" t="n"/>
-      <c r="M299" s="24" t="n"/>
+      <c r="M299" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N299" s="29" t="n"/>
       <c r="O299" s="29" t="n"/>
       <c r="P299" s="29" t="n"/>
       <c r="Q299" s="29" t="n"/>
     </row>
     <row r="300">
-      <c r="A300" s="9" t="n"/>
-      <c r="B300" s="9" t="n"/>
-      <c r="C300" s="9" t="n"/>
-      <c r="D300" s="9" t="n"/>
-      <c r="E300" s="9" t="n"/>
+      <c r="A300" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B300" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C300" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D300" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E300" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F300" s="9" t="n"/>
       <c r="G300" s="9" t="n"/>
       <c r="H300" s="9" t="n"/>
-      <c r="I300" s="9" t="n"/>
+      <c r="I300" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J300" s="9" t="n"/>
-      <c r="K300" s="9" t="n"/>
+      <c r="K300" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L300" s="24" t="n"/>
-      <c r="M300" s="24" t="n"/>
+      <c r="M300" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N300" s="29" t="n"/>
       <c r="O300" s="29" t="n"/>
       <c r="P300" s="29" t="n"/>
       <c r="Q300" s="29" t="n"/>
     </row>
     <row r="301">
-      <c r="A301" s="9" t="n"/>
-      <c r="B301" s="9" t="n"/>
-      <c r="C301" s="9" t="n"/>
+      <c r="A301" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B301" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C301" s="9" t="inlineStr"/>
       <c r="D301" s="9" t="n"/>
       <c r="E301" s="9" t="n"/>
       <c r="F301" s="9" t="n"/>
       <c r="G301" s="9" t="n"/>
       <c r="H301" s="9" t="n"/>
-      <c r="I301" s="9" t="n"/>
+      <c r="I301" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J301" s="9" t="n"/>
-      <c r="K301" s="9" t="n"/>
+      <c r="K301" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L301" s="24" t="n"/>
-      <c r="M301" s="24" t="n"/>
+      <c r="M301" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N301" s="29" t="n"/>
       <c r="O301" s="29" t="n"/>
       <c r="P301" s="29" t="n"/>
       <c r="Q301" s="29" t="n"/>
     </row>
     <row r="302">
-      <c r="A302" s="9" t="n"/>
-      <c r="B302" s="9" t="n"/>
-      <c r="C302" s="9" t="n"/>
-      <c r="D302" s="9" t="n"/>
-      <c r="E302" s="9" t="n"/>
+      <c r="A302" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B302" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C302" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D302" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E302" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F302" s="9" t="n"/>
       <c r="G302" s="9" t="n"/>
       <c r="H302" s="9" t="n"/>
-      <c r="I302" s="9" t="n"/>
+      <c r="I302" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J302" s="9" t="n"/>
-      <c r="K302" s="9" t="n"/>
+      <c r="K302" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L302" s="24" t="n"/>
-      <c r="M302" s="24" t="n"/>
+      <c r="M302" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N302" s="29" t="n"/>
       <c r="O302" s="29" t="n"/>
       <c r="P302" s="29" t="n"/>
       <c r="Q302" s="29" t="n"/>
     </row>
     <row r="303">
-      <c r="A303" s="9" t="n"/>
-      <c r="B303" s="9" t="n"/>
-      <c r="C303" s="9" t="n"/>
-      <c r="D303" s="9" t="n"/>
-      <c r="E303" s="9" t="n"/>
+      <c r="A303" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B303" s="9" t="inlineStr">
+        <is>
+          <t>84°25′00°W, 47°03′00°N</t>
+        </is>
+      </c>
+      <c r="C303" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D303" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E303" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F303" s="9" t="n"/>
       <c r="G303" s="9" t="n"/>
       <c r="H303" s="9" t="n"/>
-      <c r="I303" s="9" t="n"/>
+      <c r="I303" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J303" s="9" t="n"/>
-      <c r="K303" s="9" t="n"/>
+      <c r="K303" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L303" s="24" t="n"/>
-      <c r="M303" s="24" t="n"/>
+      <c r="M303" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N303" s="29" t="n"/>
       <c r="O303" s="29" t="n"/>
       <c r="P303" s="29" t="n"/>
       <c r="Q303" s="29" t="n"/>
     </row>
     <row r="304">
-      <c r="A304" s="9" t="n"/>
-      <c r="B304" s="9" t="n"/>
-      <c r="C304" s="9" t="n"/>
-      <c r="D304" s="9" t="n"/>
-      <c r="E304" s="9" t="n"/>
+      <c r="A304" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B304" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C304" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D304" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E304" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F304" s="9" t="n"/>
       <c r="G304" s="9" t="n"/>
       <c r="H304" s="9" t="n"/>
-      <c r="I304" s="9" t="n"/>
+      <c r="I304" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J304" s="9" t="n"/>
-      <c r="K304" s="9" t="n"/>
+      <c r="K304" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L304" s="24" t="n"/>
-      <c r="M304" s="24" t="n"/>
+      <c r="M304" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N304" s="29" t="n"/>
       <c r="O304" s="29" t="n"/>
       <c r="P304" s="29" t="n"/>
       <c r="Q304" s="29" t="n"/>
     </row>
     <row r="305">
-      <c r="A305" s="9" t="n"/>
-      <c r="B305" s="9" t="n"/>
-      <c r="C305" s="9" t="n"/>
-      <c r="D305" s="9" t="n"/>
-      <c r="E305" s="9" t="n"/>
+      <c r="A305" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B305" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C305" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D305" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E305" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F305" s="9" t="n"/>
       <c r="G305" s="9" t="n"/>
       <c r="H305" s="9" t="n"/>
-      <c r="I305" s="9" t="n"/>
+      <c r="I305" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J305" s="9" t="n"/>
-      <c r="K305" s="9" t="n"/>
+      <c r="K305" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L305" s="24" t="n"/>
-      <c r="M305" s="24" t="n"/>
+      <c r="M305" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N305" s="29" t="n"/>
       <c r="O305" s="29" t="n"/>
       <c r="P305" s="29" t="n"/>
       <c r="Q305" s="29" t="n"/>
     </row>
     <row r="306">
-      <c r="A306" s="9" t="n"/>
-      <c r="B306" s="9" t="n"/>
-      <c r="C306" s="9" t="n"/>
+      <c r="A306" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B306" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C306" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D306" s="9" t="n"/>
-      <c r="E306" s="9" t="n"/>
+      <c r="E306" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F306" s="9" t="n"/>
       <c r="G306" s="9" t="n"/>
       <c r="H306" s="9" t="n"/>
-      <c r="I306" s="9" t="n"/>
+      <c r="I306" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J306" s="9" t="n"/>
-      <c r="K306" s="9" t="n"/>
+      <c r="K306" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L306" s="24" t="n"/>
-      <c r="M306" s="24" t="n"/>
+      <c r="M306" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N306" s="29" t="n"/>
       <c r="O306" s="29" t="n"/>
       <c r="P306" s="29" t="n"/>
       <c r="Q306" s="29" t="n"/>
     </row>
     <row r="307">
-      <c r="A307" s="9" t="n"/>
-      <c r="B307" s="9" t="n"/>
-      <c r="C307" s="9" t="n"/>
-      <c r="D307" s="9" t="n"/>
-      <c r="E307" s="9" t="n"/>
+      <c r="A307" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B307" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C307" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D307" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E307" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F307" s="9" t="n"/>
       <c r="G307" s="9" t="n"/>
       <c r="H307" s="9" t="n"/>
-      <c r="I307" s="9" t="n"/>
+      <c r="I307" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J307" s="9" t="n"/>
-      <c r="K307" s="9" t="n"/>
+      <c r="K307" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L307" s="24" t="n"/>
-      <c r="M307" s="24" t="n"/>
+      <c r="M307" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N307" s="29" t="n"/>
       <c r="O307" s="29" t="n"/>
       <c r="P307" s="29" t="n"/>
       <c r="Q307" s="29" t="n"/>
     </row>
     <row r="308">
-      <c r="A308" s="9" t="n"/>
-      <c r="B308" s="9" t="n"/>
-      <c r="C308" s="9" t="n"/>
-      <c r="D308" s="9" t="n"/>
-      <c r="E308" s="9" t="n"/>
+      <c r="A308" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B308" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C308" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D308" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E308" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F308" s="9" t="n"/>
       <c r="G308" s="9" t="n"/>
       <c r="H308" s="9" t="n"/>
-      <c r="I308" s="9" t="n"/>
+      <c r="I308" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J308" s="9" t="n"/>
-      <c r="K308" s="9" t="n"/>
+      <c r="K308" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L308" s="24" t="n"/>
-      <c r="M308" s="24" t="n"/>
+      <c r="M308" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N308" s="29" t="n"/>
       <c r="O308" s="29" t="n"/>
       <c r="P308" s="29" t="n"/>
       <c r="Q308" s="29" t="n"/>
     </row>
     <row r="309">
-      <c r="A309" s="9" t="n"/>
-      <c r="B309" s="9" t="n"/>
-      <c r="C309" s="9" t="n"/>
+      <c r="A309" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B309" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C309" s="9" t="inlineStr"/>
       <c r="D309" s="9" t="n"/>
       <c r="E309" s="9" t="n"/>
       <c r="F309" s="9" t="n"/>
       <c r="G309" s="9" t="n"/>
       <c r="H309" s="9" t="n"/>
-      <c r="I309" s="9" t="n"/>
+      <c r="I309" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J309" s="9" t="n"/>
-      <c r="K309" s="9" t="n"/>
+      <c r="K309" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L309" s="24" t="n"/>
-      <c r="M309" s="24" t="n"/>
+      <c r="M309" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N309" s="29" t="n"/>
       <c r="O309" s="29" t="n"/>
       <c r="P309" s="29" t="n"/>
       <c r="Q309" s="29" t="n"/>
     </row>
     <row r="310">
-      <c r="A310" s="9" t="n"/>
-      <c r="B310" s="9" t="n"/>
-      <c r="C310" s="9" t="n"/>
-      <c r="D310" s="9" t="n"/>
-      <c r="E310" s="9" t="n"/>
+      <c r="A310" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B310" s="9" t="inlineStr">
+        <is>
+          <t>4314402900N, 313504500E</t>
+        </is>
+      </c>
+      <c r="C310" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D310" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E310" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F310" s="9" t="n"/>
       <c r="G310" s="9" t="n"/>
       <c r="H310" s="9" t="n"/>
-      <c r="I310" s="9" t="n"/>
+      <c r="I310" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J310" s="9" t="n"/>
-      <c r="K310" s="9" t="n"/>
+      <c r="K310" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L310" s="24" t="n"/>
-      <c r="M310" s="24" t="n"/>
+      <c r="M310" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N310" s="29" t="n"/>
       <c r="O310" s="29" t="n"/>
       <c r="P310" s="29" t="n"/>
       <c r="Q310" s="29" t="n"/>
     </row>
     <row r="311">
-      <c r="A311" s="9" t="n"/>
-      <c r="B311" s="9" t="n"/>
-      <c r="C311" s="9" t="n"/>
-      <c r="D311" s="9" t="n"/>
-      <c r="E311" s="9" t="n"/>
+      <c r="A311" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B311" s="9" t="inlineStr">
+        <is>
+          <t>47°03′00°N, 84°25′00°W</t>
+        </is>
+      </c>
+      <c r="C311" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D311" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E311" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F311" s="9" t="n"/>
       <c r="G311" s="9" t="n"/>
       <c r="H311" s="9" t="n"/>
-      <c r="I311" s="9" t="n"/>
+      <c r="I311" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J311" s="9" t="n"/>
-      <c r="K311" s="9" t="n"/>
+      <c r="K311" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L311" s="24" t="n"/>
-      <c r="M311" s="24" t="n"/>
+      <c r="M311" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N311" s="29" t="n"/>
       <c r="O311" s="29" t="n"/>
       <c r="P311" s="29" t="n"/>
       <c r="Q311" s="29" t="n"/>
     </row>
     <row r="312">
-      <c r="A312" s="9" t="n"/>
-      <c r="B312" s="9" t="n"/>
-      <c r="C312" s="9" t="n"/>
-      <c r="D312" s="9" t="n"/>
-      <c r="E312" s="9" t="n"/>
+      <c r="A312" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B312" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C312" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D312" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E312" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F312" s="9" t="n"/>
       <c r="G312" s="9" t="n"/>
       <c r="H312" s="9" t="n"/>
-      <c r="I312" s="9" t="n"/>
+      <c r="I312" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J312" s="9" t="n"/>
-      <c r="K312" s="9" t="n"/>
+      <c r="K312" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L312" s="24" t="n"/>
-      <c r="M312" s="24" t="n"/>
+      <c r="M312" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N312" s="29" t="n"/>
       <c r="O312" s="29" t="n"/>
       <c r="P312" s="29" t="n"/>
       <c r="Q312" s="29" t="n"/>
     </row>
     <row r="313">
-      <c r="A313" s="9" t="n"/>
-      <c r="B313" s="9" t="n"/>
-      <c r="C313" s="9" t="n"/>
-      <c r="D313" s="9" t="n"/>
-      <c r="E313" s="9" t="n"/>
+      <c r="A313" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B313" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C313" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D313" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E313" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F313" s="9" t="n"/>
       <c r="G313" s="9" t="n"/>
       <c r="H313" s="9" t="n"/>
-      <c r="I313" s="9" t="n"/>
+      <c r="I313" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J313" s="9" t="n"/>
-      <c r="K313" s="9" t="n"/>
+      <c r="K313" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L313" s="24" t="n"/>
-      <c r="M313" s="24" t="n"/>
+      <c r="M313" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N313" s="29" t="n"/>
       <c r="O313" s="29" t="n"/>
       <c r="P313" s="29" t="n"/>
       <c r="Q313" s="29" t="n"/>
     </row>
     <row r="314">
-      <c r="A314" s="9" t="n"/>
-      <c r="B314" s="9" t="n"/>
-      <c r="C314" s="9" t="n"/>
+      <c r="A314" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B314" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C314" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D314" s="9" t="n"/>
-      <c r="E314" s="9" t="n"/>
+      <c r="E314" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F314" s="9" t="n"/>
       <c r="G314" s="9" t="n"/>
       <c r="H314" s="9" t="n"/>
-      <c r="I314" s="9" t="n"/>
+      <c r="I314" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J314" s="9" t="n"/>
-      <c r="K314" s="9" t="n"/>
+      <c r="K314" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L314" s="24" t="n"/>
-      <c r="M314" s="24" t="n"/>
+      <c r="M314" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N314" s="29" t="n"/>
       <c r="O314" s="29" t="n"/>
       <c r="P314" s="29" t="n"/>
       <c r="Q314" s="29" t="n"/>
     </row>
     <row r="315">
-      <c r="A315" s="9" t="n"/>
-      <c r="B315" s="9" t="n"/>
-      <c r="C315" s="9" t="n"/>
-      <c r="D315" s="9" t="n"/>
-      <c r="E315" s="9" t="n"/>
+      <c r="A315" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B315" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C315" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D315" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E315" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F315" s="9" t="n"/>
       <c r="G315" s="9" t="n"/>
       <c r="H315" s="9" t="n"/>
-      <c r="I315" s="9" t="n"/>
+      <c r="I315" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J315" s="9" t="n"/>
-      <c r="K315" s="9" t="n"/>
+      <c r="K315" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L315" s="24" t="n"/>
-      <c r="M315" s="24" t="n"/>
+      <c r="M315" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N315" s="29" t="n"/>
       <c r="O315" s="29" t="n"/>
       <c r="P315" s="29" t="n"/>
       <c r="Q315" s="29" t="n"/>
     </row>
     <row r="316">
-      <c r="A316" s="9" t="n"/>
-      <c r="B316" s="9" t="n"/>
-      <c r="C316" s="9" t="n"/>
-      <c r="D316" s="9" t="n"/>
-      <c r="E316" s="9" t="n"/>
+      <c r="A316" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B316" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C316" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D316" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E316" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F316" s="9" t="n"/>
       <c r="G316" s="9" t="n"/>
       <c r="H316" s="9" t="n"/>
-      <c r="I316" s="9" t="n"/>
+      <c r="I316" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J316" s="9" t="n"/>
-      <c r="K316" s="9" t="n"/>
+      <c r="K316" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L316" s="24" t="n"/>
-      <c r="M316" s="24" t="n"/>
+      <c r="M316" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N316" s="29" t="n"/>
       <c r="O316" s="29" t="n"/>
       <c r="P316" s="29" t="n"/>
       <c r="Q316" s="29" t="n"/>
     </row>
     <row r="317">
-      <c r="A317" s="9" t="n"/>
-      <c r="B317" s="9" t="n"/>
-      <c r="C317" s="9" t="n"/>
-      <c r="D317" s="9" t="n"/>
+      <c r="A317" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B317" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C317" s="9" t="inlineStr"/>
+      <c r="D317" s="9" t="inlineStr">
+        <is>
+          <t>2000-2012</t>
+        </is>
+      </c>
       <c r="E317" s="9" t="n"/>
       <c r="F317" s="9" t="n"/>
       <c r="G317" s="9" t="n"/>
       <c r="H317" s="9" t="n"/>
-      <c r="I317" s="9" t="n"/>
+      <c r="I317" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J317" s="9" t="n"/>
-      <c r="K317" s="9" t="n"/>
+      <c r="K317" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L317" s="24" t="n"/>
-      <c r="M317" s="24" t="n"/>
+      <c r="M317" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N317" s="29" t="n"/>
       <c r="O317" s="29" t="n"/>
       <c r="P317" s="29" t="n"/>
       <c r="Q317" s="29" t="n"/>
     </row>
     <row r="318">
-      <c r="A318" s="9" t="n"/>
-      <c r="B318" s="9" t="n"/>
-      <c r="C318" s="9" t="n"/>
-      <c r="D318" s="9" t="n"/>
-      <c r="E318" s="9" t="n"/>
+      <c r="A318" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B318" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C318" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D318" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E318" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F318" s="9" t="n"/>
       <c r="G318" s="9" t="n"/>
       <c r="H318" s="9" t="n"/>
-      <c r="I318" s="9" t="n"/>
+      <c r="I318" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J318" s="9" t="n"/>
-      <c r="K318" s="9" t="n"/>
+      <c r="K318" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L318" s="24" t="n"/>
-      <c r="M318" s="24" t="n"/>
+      <c r="M318" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N318" s="29" t="n"/>
       <c r="O318" s="29" t="n"/>
       <c r="P318" s="29" t="n"/>
       <c r="Q318" s="29" t="n"/>
     </row>
     <row r="319">
-      <c r="A319" s="9" t="n"/>
-      <c r="B319" s="9" t="n"/>
-      <c r="C319" s="9" t="n"/>
-      <c r="D319" s="9" t="n"/>
-      <c r="E319" s="9" t="n"/>
+      <c r="A319" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B319" s="9" t="inlineStr">
+        <is>
+          <t>84°25′00°W, 47°03′00°N</t>
+        </is>
+      </c>
+      <c r="C319" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D319" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E319" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F319" s="9" t="n"/>
       <c r="G319" s="9" t="n"/>
       <c r="H319" s="9" t="n"/>
-      <c r="I319" s="9" t="n"/>
+      <c r="I319" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J319" s="9" t="n"/>
-      <c r="K319" s="9" t="n"/>
+      <c r="K319" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L319" s="24" t="n"/>
-      <c r="M319" s="24" t="n"/>
+      <c r="M319" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N319" s="29" t="n"/>
       <c r="O319" s="29" t="n"/>
       <c r="P319" s="29" t="n"/>
       <c r="Q319" s="29" t="n"/>
     </row>
     <row r="320">
-      <c r="A320" s="9" t="n"/>
-      <c r="B320" s="9" t="n"/>
-      <c r="C320" s="9" t="n"/>
-      <c r="D320" s="9" t="n"/>
-      <c r="E320" s="9" t="n"/>
+      <c r="A320" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B320" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C320" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D320" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E320" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F320" s="9" t="n"/>
       <c r="G320" s="9" t="n"/>
       <c r="H320" s="9" t="n"/>
-      <c r="I320" s="9" t="n"/>
+      <c r="I320" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J320" s="9" t="n"/>
-      <c r="K320" s="9" t="n"/>
+      <c r="K320" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L320" s="24" t="n"/>
-      <c r="M320" s="24" t="n"/>
+      <c r="M320" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N320" s="29" t="n"/>
       <c r="O320" s="29" t="n"/>
       <c r="P320" s="29" t="n"/>
       <c r="Q320" s="29" t="n"/>
     </row>
     <row r="321">
-      <c r="A321" s="9" t="n"/>
-      <c r="B321" s="9" t="n"/>
-      <c r="C321" s="9" t="n"/>
-      <c r="D321" s="9" t="n"/>
-      <c r="E321" s="9" t="n"/>
+      <c r="A321" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B321" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C321" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D321" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E321" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F321" s="9" t="n"/>
       <c r="G321" s="9" t="n"/>
       <c r="H321" s="9" t="n"/>
-      <c r="I321" s="9" t="n"/>
+      <c r="I321" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J321" s="9" t="n"/>
-      <c r="K321" s="9" t="n"/>
+      <c r="K321" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L321" s="24" t="n"/>
-      <c r="M321" s="24" t="n"/>
+      <c r="M321" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N321" s="29" t="n"/>
       <c r="O321" s="29" t="n"/>
       <c r="P321" s="29" t="n"/>
       <c r="Q321" s="29" t="n"/>
     </row>
     <row r="322">
-      <c r="A322" s="9" t="n"/>
-      <c r="B322" s="9" t="n"/>
-      <c r="C322" s="9" t="n"/>
+      <c r="A322" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B322" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C322" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D322" s="9" t="n"/>
-      <c r="E322" s="9" t="n"/>
+      <c r="E322" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F322" s="9" t="n"/>
       <c r="G322" s="9" t="n"/>
       <c r="H322" s="9" t="n"/>
-      <c r="I322" s="9" t="n"/>
+      <c r="I322" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J322" s="9" t="n"/>
-      <c r="K322" s="9" t="n"/>
+      <c r="K322" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L322" s="24" t="n"/>
-      <c r="M322" s="24" t="n"/>
+      <c r="M322" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N322" s="29" t="n"/>
       <c r="O322" s="29" t="n"/>
       <c r="P322" s="29" t="n"/>
       <c r="Q322" s="29" t="n"/>
     </row>
     <row r="323">
-      <c r="A323" s="9" t="n"/>
-      <c r="B323" s="9" t="n"/>
-      <c r="C323" s="9" t="n"/>
-      <c r="D323" s="9" t="n"/>
-      <c r="E323" s="9" t="n"/>
+      <c r="A323" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B323" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C323" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D323" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E323" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F323" s="9" t="n"/>
       <c r="G323" s="9" t="n"/>
       <c r="H323" s="9" t="n"/>
-      <c r="I323" s="9" t="n"/>
+      <c r="I323" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J323" s="9" t="n"/>
-      <c r="K323" s="9" t="n"/>
+      <c r="K323" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L323" s="24" t="n"/>
-      <c r="M323" s="24" t="n"/>
+      <c r="M323" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N323" s="29" t="n"/>
       <c r="O323" s="29" t="n"/>
       <c r="P323" s="29" t="n"/>
       <c r="Q323" s="29" t="n"/>
     </row>
     <row r="324">
-      <c r="A324" s="9" t="n"/>
-      <c r="B324" s="9" t="n"/>
-      <c r="C324" s="9" t="n"/>
-      <c r="D324" s="9" t="n"/>
-      <c r="E324" s="9" t="n"/>
+      <c r="A324" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B324" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C324" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D324" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E324" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F324" s="9" t="n"/>
       <c r="G324" s="9" t="n"/>
       <c r="H324" s="9" t="n"/>
-      <c r="I324" s="9" t="n"/>
+      <c r="I324" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J324" s="9" t="n"/>
-      <c r="K324" s="9" t="n"/>
+      <c r="K324" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L324" s="24" t="n"/>
-      <c r="M324" s="24" t="n"/>
+      <c r="M324" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N324" s="29" t="n"/>
       <c r="O324" s="29" t="n"/>
       <c r="P324" s="29" t="n"/>
       <c r="Q324" s="29" t="n"/>
     </row>
     <row r="325">
-      <c r="A325" s="9" t="n"/>
-      <c r="B325" s="9" t="n"/>
-      <c r="C325" s="9" t="n"/>
-      <c r="D325" s="9" t="n"/>
+      <c r="A325" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B325" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C325" s="9" t="inlineStr"/>
+      <c r="D325" s="9" t="inlineStr">
+        <is>
+          <t>2000-2012</t>
+        </is>
+      </c>
       <c r="E325" s="9" t="n"/>
       <c r="F325" s="9" t="n"/>
       <c r="G325" s="9" t="n"/>
       <c r="H325" s="9" t="n"/>
-      <c r="I325" s="9" t="n"/>
+      <c r="I325" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J325" s="9" t="n"/>
-      <c r="K325" s="9" t="n"/>
+      <c r="K325" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L325" s="24" t="n"/>
-      <c r="M325" s="24" t="n"/>
+      <c r="M325" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N325" s="29" t="n"/>
       <c r="O325" s="29" t="n"/>
       <c r="P325" s="29" t="n"/>
       <c r="Q325" s="29" t="n"/>
     </row>
     <row r="326">
-      <c r="A326" s="9" t="n"/>
-      <c r="B326" s="9" t="n"/>
-      <c r="C326" s="9" t="n"/>
-      <c r="D326" s="9" t="n"/>
-      <c r="E326" s="9" t="n"/>
+      <c r="A326" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B326" s="9" t="inlineStr">
+        <is>
+          <t>4314402900N, 313504500E</t>
+        </is>
+      </c>
+      <c r="C326" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D326" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E326" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F326" s="9" t="n"/>
       <c r="G326" s="9" t="n"/>
       <c r="H326" s="9" t="n"/>
-      <c r="I326" s="9" t="n"/>
+      <c r="I326" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J326" s="9" t="n"/>
-      <c r="K326" s="9" t="n"/>
+      <c r="K326" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L326" s="24" t="n"/>
-      <c r="M326" s="24" t="n"/>
+      <c r="M326" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N326" s="29" t="n"/>
       <c r="O326" s="29" t="n"/>
       <c r="P326" s="29" t="n"/>
       <c r="Q326" s="29" t="n"/>
     </row>
     <row r="327">
-      <c r="A327" s="9" t="n"/>
-      <c r="B327" s="9" t="n"/>
-      <c r="C327" s="9" t="n"/>
-      <c r="D327" s="9" t="n"/>
-      <c r="E327" s="9" t="n"/>
+      <c r="A327" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B327" s="9" t="inlineStr">
+        <is>
+          <t>47°03′00°N, 84°25′00°W</t>
+        </is>
+      </c>
+      <c r="C327" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D327" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E327" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F327" s="9" t="n"/>
       <c r="G327" s="9" t="n"/>
       <c r="H327" s="9" t="n"/>
-      <c r="I327" s="9" t="n"/>
+      <c r="I327" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J327" s="9" t="n"/>
-      <c r="K327" s="9" t="n"/>
+      <c r="K327" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L327" s="24" t="n"/>
-      <c r="M327" s="24" t="n"/>
+      <c r="M327" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N327" s="29" t="n"/>
       <c r="O327" s="29" t="n"/>
       <c r="P327" s="29" t="n"/>
       <c r="Q327" s="29" t="n"/>
     </row>
     <row r="328">
-      <c r="A328" s="9" t="n"/>
-      <c r="B328" s="9" t="n"/>
-      <c r="C328" s="9" t="n"/>
-      <c r="D328" s="9" t="n"/>
-      <c r="E328" s="9" t="n"/>
+      <c r="A328" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B328" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C328" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D328" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E328" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F328" s="9" t="n"/>
       <c r="G328" s="9" t="n"/>
       <c r="H328" s="9" t="n"/>
-      <c r="I328" s="9" t="n"/>
+      <c r="I328" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J328" s="9" t="n"/>
-      <c r="K328" s="9" t="n"/>
+      <c r="K328" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L328" s="24" t="n"/>
-      <c r="M328" s="24" t="n"/>
+      <c r="M328" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N328" s="29" t="n"/>
       <c r="O328" s="29" t="n"/>
       <c r="P328" s="29" t="n"/>
       <c r="Q328" s="29" t="n"/>
     </row>
     <row r="329">
-      <c r="A329" s="9" t="n"/>
-      <c r="B329" s="9" t="n"/>
-      <c r="C329" s="9" t="n"/>
-      <c r="D329" s="9" t="n"/>
-      <c r="E329" s="9" t="n"/>
+      <c r="A329" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B329" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C329" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D329" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E329" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F329" s="9" t="n"/>
       <c r="G329" s="9" t="n"/>
       <c r="H329" s="9" t="n"/>
-      <c r="I329" s="9" t="n"/>
+      <c r="I329" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J329" s="9" t="n"/>
-      <c r="K329" s="9" t="n"/>
+      <c r="K329" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L329" s="24" t="n"/>
-      <c r="M329" s="24" t="n"/>
+      <c r="M329" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N329" s="29" t="n"/>
       <c r="O329" s="29" t="n"/>
       <c r="P329" s="29" t="n"/>
       <c r="Q329" s="29" t="n"/>
     </row>
     <row r="330">
-      <c r="A330" s="9" t="n"/>
-      <c r="B330" s="9" t="n"/>
-      <c r="C330" s="9" t="n"/>
+      <c r="A330" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B330" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C330" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D330" s="9" t="n"/>
-      <c r="E330" s="9" t="n"/>
+      <c r="E330" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F330" s="9" t="n"/>
       <c r="G330" s="9" t="n"/>
       <c r="H330" s="9" t="n"/>
-      <c r="I330" s="9" t="n"/>
+      <c r="I330" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J330" s="9" t="n"/>
-      <c r="K330" s="9" t="n"/>
+      <c r="K330" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L330" s="24" t="n"/>
-      <c r="M330" s="24" t="n"/>
+      <c r="M330" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N330" s="29" t="n"/>
       <c r="O330" s="29" t="n"/>
       <c r="P330" s="29" t="n"/>
       <c r="Q330" s="29" t="n"/>
     </row>
     <row r="331">
-      <c r="A331" s="9" t="n"/>
-      <c r="B331" s="9" t="n"/>
-      <c r="C331" s="9" t="n"/>
-      <c r="D331" s="9" t="n"/>
-      <c r="E331" s="9" t="n"/>
+      <c r="A331" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B331" s="9" t="inlineStr">
+        <is>
+          <t>17.22◦ E, 46.32◦ N</t>
+        </is>
+      </c>
+      <c r="C331" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D331" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-2010, 1961-2017, 1981-2010</t>
+        </is>
+      </c>
+      <c r="E331" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F331" s="9" t="n"/>
       <c r="G331" s="9" t="n"/>
       <c r="H331" s="9" t="n"/>
-      <c r="I331" s="9" t="n"/>
+      <c r="I331" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J331" s="9" t="n"/>
-      <c r="K331" s="9" t="n"/>
+      <c r="K331" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L331" s="24" t="n"/>
-      <c r="M331" s="24" t="n"/>
+      <c r="M331" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N331" s="29" t="n"/>
       <c r="O331" s="29" t="n"/>
       <c r="P331" s="29" t="n"/>
       <c r="Q331" s="29" t="n"/>
     </row>
     <row r="332">
-      <c r="A332" s="9" t="n"/>
-      <c r="B332" s="9" t="n"/>
-      <c r="C332" s="9" t="n"/>
-      <c r="D332" s="9" t="n"/>
-      <c r="E332" s="9" t="n"/>
+      <c r="A332" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B332" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C332" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D332" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E332" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F332" s="9" t="n"/>
       <c r="G332" s="9" t="n"/>
       <c r="H332" s="9" t="n"/>
-      <c r="I332" s="9" t="n"/>
+      <c r="I332" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J332" s="9" t="n"/>
-      <c r="K332" s="9" t="n"/>
+      <c r="K332" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L332" s="24" t="n"/>
-      <c r="M332" s="24" t="n"/>
+      <c r="M332" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N332" s="29" t="n"/>
       <c r="O332" s="29" t="n"/>
       <c r="P332" s="29" t="n"/>
       <c r="Q332" s="29" t="n"/>
     </row>
     <row r="333">
-      <c r="A333" s="9" t="n"/>
-      <c r="B333" s="9" t="n"/>
-      <c r="C333" s="9" t="n"/>
+      <c r="A333" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B333" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C333" s="9" t="inlineStr"/>
       <c r="D333" s="9" t="n"/>
       <c r="E333" s="9" t="n"/>
       <c r="F333" s="9" t="n"/>
       <c r="G333" s="9" t="n"/>
       <c r="H333" s="9" t="n"/>
-      <c r="I333" s="9" t="n"/>
+      <c r="I333" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J333" s="9" t="n"/>
-      <c r="K333" s="9" t="n"/>
+      <c r="K333" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L333" s="24" t="n"/>
-      <c r="M333" s="24" t="n"/>
+      <c r="M333" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N333" s="29" t="n"/>
       <c r="O333" s="29" t="n"/>
       <c r="P333" s="29" t="n"/>
       <c r="Q333" s="29" t="n"/>
     </row>
     <row r="334">
-      <c r="A334" s="9" t="n"/>
-      <c r="B334" s="9" t="n"/>
-      <c r="C334" s="9" t="n"/>
-      <c r="D334" s="9" t="n"/>
-      <c r="E334" s="9" t="n"/>
+      <c r="A334" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B334" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C334" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D334" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E334" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F334" s="9" t="n"/>
       <c r="G334" s="9" t="n"/>
       <c r="H334" s="9" t="n"/>
-      <c r="I334" s="9" t="n"/>
+      <c r="I334" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J334" s="9" t="n"/>
-      <c r="K334" s="9" t="n"/>
+      <c r="K334" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L334" s="24" t="n"/>
-      <c r="M334" s="24" t="n"/>
+      <c r="M334" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N334" s="29" t="n"/>
       <c r="O334" s="29" t="n"/>
       <c r="P334" s="29" t="n"/>
       <c r="Q334" s="29" t="n"/>
     </row>
     <row r="335">
-      <c r="A335" s="9" t="n"/>
-      <c r="B335" s="9" t="n"/>
-      <c r="C335" s="9" t="n"/>
-      <c r="D335" s="9" t="n"/>
-      <c r="E335" s="9" t="n"/>
+      <c r="A335" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B335" s="9" t="inlineStr">
+        <is>
+          <t>47°03′00°N, 84°25′00°W</t>
+        </is>
+      </c>
+      <c r="C335" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D335" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E335" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F335" s="9" t="n"/>
       <c r="G335" s="9" t="n"/>
       <c r="H335" s="9" t="n"/>
-      <c r="I335" s="9" t="n"/>
+      <c r="I335" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J335" s="9" t="n"/>
-      <c r="K335" s="9" t="n"/>
+      <c r="K335" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L335" s="24" t="n"/>
-      <c r="M335" s="24" t="n"/>
+      <c r="M335" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N335" s="29" t="n"/>
       <c r="O335" s="29" t="n"/>
       <c r="P335" s="29" t="n"/>
       <c r="Q335" s="29" t="n"/>
     </row>
     <row r="336">
-      <c r="A336" s="9" t="n"/>
-      <c r="B336" s="9" t="n"/>
-      <c r="C336" s="9" t="n"/>
-      <c r="D336" s="9" t="n"/>
-      <c r="E336" s="9" t="n"/>
+      <c r="A336" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B336" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C336" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D336" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E336" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F336" s="9" t="n"/>
       <c r="G336" s="9" t="n"/>
       <c r="H336" s="9" t="n"/>
-      <c r="I336" s="9" t="n"/>
+      <c r="I336" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J336" s="9" t="n"/>
-      <c r="K336" s="9" t="n"/>
+      <c r="K336" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L336" s="24" t="n"/>
-      <c r="M336" s="24" t="n"/>
+      <c r="M336" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N336" s="29" t="n"/>
       <c r="O336" s="29" t="n"/>
       <c r="P336" s="29" t="n"/>
       <c r="Q336" s="29" t="n"/>
     </row>
     <row r="337">
-      <c r="A337" s="9" t="n"/>
-      <c r="B337" s="9" t="n"/>
-      <c r="C337" s="9" t="n"/>
-      <c r="D337" s="9" t="n"/>
-      <c r="E337" s="9" t="n"/>
+      <c r="A337" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B337" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C337" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D337" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E337" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F337" s="9" t="n"/>
       <c r="G337" s="9" t="n"/>
       <c r="H337" s="9" t="n"/>
-      <c r="I337" s="9" t="n"/>
+      <c r="I337" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J337" s="9" t="n"/>
-      <c r="K337" s="9" t="n"/>
+      <c r="K337" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L337" s="24" t="n"/>
-      <c r="M337" s="24" t="n"/>
+      <c r="M337" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N337" s="29" t="n"/>
       <c r="O337" s="29" t="n"/>
       <c r="P337" s="29" t="n"/>
       <c r="Q337" s="29" t="n"/>
     </row>
     <row r="338">
-      <c r="A338" s="9" t="n"/>
-      <c r="B338" s="9" t="n"/>
-      <c r="C338" s="9" t="n"/>
+      <c r="A338" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B338" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C338" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D338" s="9" t="n"/>
-      <c r="E338" s="9" t="n"/>
+      <c r="E338" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F338" s="9" t="n"/>
       <c r="G338" s="9" t="n"/>
       <c r="H338" s="9" t="n"/>
-      <c r="I338" s="9" t="n"/>
+      <c r="I338" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J338" s="9" t="n"/>
-      <c r="K338" s="9" t="n"/>
+      <c r="K338" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L338" s="24" t="n"/>
-      <c r="M338" s="24" t="n"/>
+      <c r="M338" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N338" s="29" t="n"/>
       <c r="O338" s="29" t="n"/>
       <c r="P338" s="29" t="n"/>
       <c r="Q338" s="29" t="n"/>
     </row>
     <row r="339">
-      <c r="A339" s="9" t="n"/>
-      <c r="B339" s="9" t="n"/>
-      <c r="C339" s="9" t="n"/>
-      <c r="D339" s="9" t="n"/>
-      <c r="E339" s="9" t="n"/>
+      <c r="A339" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B339" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C339" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D339" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-2010, 1961-2017, 1981-2010</t>
+        </is>
+      </c>
+      <c r="E339" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F339" s="9" t="n"/>
       <c r="G339" s="9" t="n"/>
       <c r="H339" s="9" t="n"/>
-      <c r="I339" s="9" t="n"/>
+      <c r="I339" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J339" s="9" t="n"/>
-      <c r="K339" s="9" t="n"/>
+      <c r="K339" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L339" s="24" t="n"/>
-      <c r="M339" s="24" t="n"/>
+      <c r="M339" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N339" s="29" t="n"/>
       <c r="O339" s="29" t="n"/>
       <c r="P339" s="29" t="n"/>
       <c r="Q339" s="29" t="n"/>
     </row>
     <row r="340">
-      <c r="A340" s="9" t="n"/>
-      <c r="B340" s="9" t="n"/>
-      <c r="C340" s="9" t="n"/>
-      <c r="D340" s="9" t="n"/>
-      <c r="E340" s="9" t="n"/>
+      <c r="A340" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B340" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C340" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D340" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E340" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F340" s="9" t="n"/>
       <c r="G340" s="9" t="n"/>
       <c r="H340" s="9" t="n"/>
-      <c r="I340" s="9" t="n"/>
+      <c r="I340" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J340" s="9" t="n"/>
-      <c r="K340" s="9" t="n"/>
+      <c r="K340" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L340" s="24" t="n"/>
-      <c r="M340" s="24" t="n"/>
+      <c r="M340" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N340" s="29" t="n"/>
       <c r="O340" s="29" t="n"/>
       <c r="P340" s="29" t="n"/>
       <c r="Q340" s="29" t="n"/>
     </row>
     <row r="341">
-      <c r="A341" s="9" t="n"/>
-      <c r="B341" s="9" t="n"/>
-      <c r="C341" s="9" t="n"/>
-      <c r="D341" s="9" t="n"/>
+      <c r="A341" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B341" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C341" s="9" t="inlineStr"/>
+      <c r="D341" s="9" t="inlineStr">
+        <is>
+          <t>2000-2012</t>
+        </is>
+      </c>
       <c r="E341" s="9" t="n"/>
       <c r="F341" s="9" t="n"/>
       <c r="G341" s="9" t="n"/>
       <c r="H341" s="9" t="n"/>
-      <c r="I341" s="9" t="n"/>
+      <c r="I341" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J341" s="9" t="n"/>
-      <c r="K341" s="9" t="n"/>
+      <c r="K341" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L341" s="24" t="n"/>
-      <c r="M341" s="24" t="n"/>
+      <c r="M341" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N341" s="29" t="n"/>
       <c r="O341" s="29" t="n"/>
       <c r="P341" s="29" t="n"/>
       <c r="Q341" s="29" t="n"/>
     </row>
     <row r="342">
-      <c r="A342" s="9" t="n"/>
-      <c r="B342" s="9" t="n"/>
-      <c r="C342" s="9" t="n"/>
-      <c r="D342" s="9" t="n"/>
-      <c r="E342" s="9" t="n"/>
+      <c r="A342" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B342" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C342" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D342" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E342" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F342" s="9" t="n"/>
       <c r="G342" s="9" t="n"/>
       <c r="H342" s="9" t="n"/>
-      <c r="I342" s="9" t="n"/>
+      <c r="I342" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J342" s="9" t="n"/>
-      <c r="K342" s="9" t="n"/>
+      <c r="K342" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L342" s="24" t="n"/>
-      <c r="M342" s="24" t="n"/>
+      <c r="M342" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N342" s="29" t="n"/>
       <c r="O342" s="29" t="n"/>
       <c r="P342" s="29" t="n"/>
       <c r="Q342" s="29" t="n"/>
     </row>
     <row r="343">
-      <c r="A343" s="9" t="n"/>
-      <c r="B343" s="9" t="n"/>
-      <c r="C343" s="9" t="n"/>
-      <c r="D343" s="9" t="n"/>
-      <c r="E343" s="9" t="n"/>
+      <c r="A343" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B343" s="9" t="inlineStr">
+        <is>
+          <t>84°25′00°W, 47°03′00°N</t>
+        </is>
+      </c>
+      <c r="C343" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D343" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E343" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F343" s="9" t="n"/>
       <c r="G343" s="9" t="n"/>
       <c r="H343" s="9" t="n"/>
-      <c r="I343" s="9" t="n"/>
+      <c r="I343" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J343" s="9" t="n"/>
-      <c r="K343" s="9" t="n"/>
+      <c r="K343" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L343" s="24" t="n"/>
-      <c r="M343" s="24" t="n"/>
+      <c r="M343" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N343" s="29" t="n"/>
       <c r="O343" s="29" t="n"/>
       <c r="P343" s="29" t="n"/>
       <c r="Q343" s="29" t="n"/>
     </row>
     <row r="344">
-      <c r="A344" s="9" t="n"/>
-      <c r="B344" s="9" t="n"/>
-      <c r="C344" s="9" t="n"/>
-      <c r="D344" s="9" t="n"/>
-      <c r="E344" s="9" t="n"/>
+      <c r="A344" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B344" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C344" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D344" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E344" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F344" s="9" t="n"/>
       <c r="G344" s="9" t="n"/>
       <c r="H344" s="9" t="n"/>
-      <c r="I344" s="9" t="n"/>
+      <c r="I344" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J344" s="9" t="n"/>
-      <c r="K344" s="9" t="n"/>
+      <c r="K344" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L344" s="24" t="n"/>
-      <c r="M344" s="24" t="n"/>
+      <c r="M344" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N344" s="29" t="n"/>
       <c r="O344" s="29" t="n"/>
       <c r="P344" s="29" t="n"/>
       <c r="Q344" s="29" t="n"/>
     </row>
     <row r="345">
-      <c r="A345" s="9" t="n"/>
-      <c r="B345" s="9" t="n"/>
-      <c r="C345" s="9" t="n"/>
-      <c r="D345" s="9" t="n"/>
-      <c r="E345" s="9" t="n"/>
+      <c r="A345" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B345" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C345" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D345" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E345" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F345" s="9" t="n"/>
       <c r="G345" s="9" t="n"/>
       <c r="H345" s="9" t="n"/>
-      <c r="I345" s="9" t="n"/>
+      <c r="I345" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J345" s="9" t="n"/>
-      <c r="K345" s="9" t="n"/>
+      <c r="K345" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L345" s="24" t="n"/>
-      <c r="M345" s="24" t="n"/>
+      <c r="M345" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N345" s="29" t="n"/>
       <c r="O345" s="29" t="n"/>
       <c r="P345" s="29" t="n"/>
       <c r="Q345" s="29" t="n"/>
     </row>
     <row r="346">
-      <c r="A346" s="9" t="n"/>
-      <c r="B346" s="9" t="n"/>
-      <c r="C346" s="9" t="n"/>
+      <c r="A346" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B346" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C346" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D346" s="9" t="n"/>
-      <c r="E346" s="9" t="n"/>
+      <c r="E346" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F346" s="9" t="n"/>
       <c r="G346" s="9" t="n"/>
       <c r="H346" s="9" t="n"/>
-      <c r="I346" s="9" t="n"/>
+      <c r="I346" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J346" s="9" t="n"/>
-      <c r="K346" s="9" t="n"/>
+      <c r="K346" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L346" s="24" t="n"/>
-      <c r="M346" s="24" t="n"/>
+      <c r="M346" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N346" s="29" t="n"/>
       <c r="O346" s="29" t="n"/>
       <c r="P346" s="29" t="n"/>
       <c r="Q346" s="29" t="n"/>
     </row>
     <row r="347">
-      <c r="A347" s="9" t="n"/>
-      <c r="B347" s="9" t="n"/>
-      <c r="C347" s="9" t="n"/>
-      <c r="D347" s="9" t="n"/>
-      <c r="E347" s="9" t="n"/>
+      <c r="A347" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B347" s="9" t="inlineStr">
+        <is>
+          <t>17.22◦ E, 46.32◦ N</t>
+        </is>
+      </c>
+      <c r="C347" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D347" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E347" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F347" s="9" t="n"/>
       <c r="G347" s="9" t="n"/>
       <c r="H347" s="9" t="n"/>
-      <c r="I347" s="9" t="n"/>
+      <c r="I347" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J347" s="9" t="n"/>
-      <c r="K347" s="9" t="n"/>
+      <c r="K347" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L347" s="24" t="n"/>
-      <c r="M347" s="24" t="n"/>
+      <c r="M347" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N347" s="29" t="n"/>
       <c r="O347" s="29" t="n"/>
       <c r="P347" s="29" t="n"/>
       <c r="Q347" s="29" t="n"/>
     </row>
     <row r="348">
-      <c r="A348" s="9" t="n"/>
-      <c r="B348" s="9" t="n"/>
-      <c r="C348" s="9" t="n"/>
-      <c r="D348" s="9" t="n"/>
-      <c r="E348" s="9" t="n"/>
+      <c r="A348" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B348" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C348" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D348" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E348" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F348" s="9" t="n"/>
       <c r="G348" s="9" t="n"/>
       <c r="H348" s="9" t="n"/>
-      <c r="I348" s="9" t="n"/>
+      <c r="I348" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J348" s="9" t="n"/>
-      <c r="K348" s="9" t="n"/>
+      <c r="K348" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L348" s="24" t="n"/>
-      <c r="M348" s="24" t="n"/>
+      <c r="M348" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N348" s="29" t="n"/>
       <c r="O348" s="29" t="n"/>
       <c r="P348" s="29" t="n"/>
       <c r="Q348" s="29" t="n"/>
     </row>
     <row r="349">
-      <c r="A349" s="9" t="n"/>
-      <c r="B349" s="9" t="n"/>
-      <c r="C349" s="9" t="n"/>
-      <c r="D349" s="9" t="n"/>
+      <c r="A349" s="9" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B349" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C349" s="9" t="inlineStr"/>
+      <c r="D349" s="9" t="inlineStr">
+        <is>
+          <t>2000-2012</t>
+        </is>
+      </c>
       <c r="E349" s="9" t="n"/>
       <c r="F349" s="9" t="n"/>
       <c r="G349" s="9" t="n"/>
       <c r="H349" s="9" t="n"/>
-      <c r="I349" s="9" t="n"/>
+      <c r="I349" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J349" s="9" t="n"/>
-      <c r="K349" s="9" t="n"/>
+      <c r="K349" s="9" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
       <c r="L349" s="24" t="n"/>
-      <c r="M349" s="24" t="n"/>
+      <c r="M349" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N349" s="29" t="n"/>
       <c r="O349" s="29" t="n"/>
       <c r="P349" s="29" t="n"/>
       <c r="Q349" s="29" t="n"/>
     </row>
     <row r="350">
-      <c r="A350" s="9" t="n"/>
-      <c r="B350" s="9" t="n"/>
-      <c r="C350" s="9" t="n"/>
-      <c r="D350" s="9" t="n"/>
-      <c r="E350" s="9" t="n"/>
+      <c r="A350" s="9" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B350" s="9" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C350" s="9" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D350" s="9" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E350" s="9" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
       <c r="F350" s="9" t="n"/>
       <c r="G350" s="9" t="n"/>
       <c r="H350" s="9" t="n"/>
-      <c r="I350" s="9" t="n"/>
+      <c r="I350" s="9" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
       <c r="J350" s="9" t="n"/>
-      <c r="K350" s="9" t="n"/>
+      <c r="K350" s="9" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
       <c r="L350" s="24" t="n"/>
-      <c r="M350" s="24" t="n"/>
+      <c r="M350" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
       <c r="N350" s="29" t="n"/>
       <c r="O350" s="29" t="n"/>
       <c r="P350" s="29" t="n"/>
       <c r="Q350" s="29" t="n"/>
     </row>
     <row r="351">
-      <c r="A351" s="9" t="n"/>
-      <c r="B351" s="9" t="n"/>
-      <c r="C351" s="9" t="n"/>
-      <c r="D351" s="9" t="n"/>
-      <c r="E351" s="9" t="n"/>
+      <c r="A351" s="9" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B351" s="9" t="inlineStr">
+        <is>
+          <t>84°25′00°W, 47°03′00°N</t>
+        </is>
+      </c>
+      <c r="C351" s="9" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D351" s="9" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E351" s="9" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
       <c r="F351" s="9" t="n"/>
       <c r="G351" s="9" t="n"/>
       <c r="H351" s="9" t="n"/>
-      <c r="I351" s="9" t="n"/>
+      <c r="I351" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J351" s="9" t="n"/>
-      <c r="K351" s="9" t="n"/>
+      <c r="K351" s="9" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
       <c r="L351" s="24" t="n"/>
-      <c r="M351" s="24" t="n"/>
+      <c r="M351" s="24" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
       <c r="N351" s="29" t="n"/>
       <c r="O351" s="29" t="n"/>
       <c r="P351" s="29" t="n"/>
       <c r="Q351" s="29" t="n"/>
     </row>
     <row r="352">
-      <c r="A352" s="9" t="n"/>
-      <c r="B352" s="9" t="n"/>
-      <c r="C352" s="9" t="n"/>
-      <c r="D352" s="9" t="n"/>
-      <c r="E352" s="9" t="n"/>
+      <c r="A352" s="9" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B352" s="9" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C352" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D352" s="9" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E352" s="9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="F352" s="9" t="n"/>
       <c r="G352" s="9" t="n"/>
       <c r="H352" s="9" t="n"/>
-      <c r="I352" s="9" t="n"/>
+      <c r="I352" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J352" s="9" t="n"/>
-      <c r="K352" s="9" t="n"/>
+      <c r="K352" s="9" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
       <c r="L352" s="24" t="n"/>
-      <c r="M352" s="24" t="n"/>
+      <c r="M352" s="24" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
       <c r="N352" s="29" t="n"/>
       <c r="O352" s="29" t="n"/>
       <c r="P352" s="29" t="n"/>
       <c r="Q352" s="29" t="n"/>
     </row>
     <row r="353">
-      <c r="A353" s="9" t="n"/>
-      <c r="B353" s="9" t="n"/>
-      <c r="C353" s="9" t="n"/>
-      <c r="D353" s="9" t="n"/>
-      <c r="E353" s="9" t="n"/>
+      <c r="A353" s="9" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B353" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C353" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D353" s="9" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E353" s="9" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
       <c r="F353" s="9" t="n"/>
       <c r="G353" s="9" t="n"/>
       <c r="H353" s="9" t="n"/>
-      <c r="I353" s="9" t="n"/>
+      <c r="I353" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J353" s="9" t="n"/>
-      <c r="K353" s="9" t="n"/>
+      <c r="K353" s="9" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
       <c r="L353" s="24" t="n"/>
-      <c r="M353" s="24" t="n"/>
+      <c r="M353" s="24" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
       <c r="N353" s="29" t="n"/>
       <c r="O353" s="29" t="n"/>
       <c r="P353" s="29" t="n"/>
       <c r="Q353" s="29" t="n"/>
     </row>
     <row r="354">
-      <c r="A354" s="9" t="n"/>
-      <c r="B354" s="9" t="n"/>
-      <c r="C354" s="9" t="n"/>
+      <c r="A354" s="9" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B354" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C354" s="9" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
       <c r="D354" s="9" t="n"/>
-      <c r="E354" s="9" t="n"/>
+      <c r="E354" s="9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="F354" s="9" t="n"/>
       <c r="G354" s="9" t="n"/>
       <c r="H354" s="9" t="n"/>
-      <c r="I354" s="9" t="n"/>
+      <c r="I354" s="9" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
       <c r="J354" s="9" t="n"/>
-      <c r="K354" s="9" t="n"/>
+      <c r="K354" s="9" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
       <c r="L354" s="24" t="n"/>
-      <c r="M354" s="24" t="n"/>
+      <c r="M354" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
       <c r="N354" s="29" t="n"/>
       <c r="O354" s="29" t="n"/>
       <c r="P354" s="29" t="n"/>
       <c r="Q354" s="29" t="n"/>
     </row>
     <row r="355">
-      <c r="A355" s="9" t="n"/>
-      <c r="B355" s="9" t="n"/>
-      <c r="C355" s="9" t="n"/>
-      <c r="D355" s="9" t="n"/>
-      <c r="E355" s="9" t="n"/>
+      <c r="A355" s="9" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B355" s="9" t="inlineStr">
+        <is>
+          <t>46.32◦ N, 17.22◦ E</t>
+        </is>
+      </c>
+      <c r="C355" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D355" s="9" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E355" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
       <c r="F355" s="9" t="n"/>
       <c r="G355" s="9" t="n"/>
       <c r="H355" s="9" t="n"/>
-      <c r="I355" s="9" t="n"/>
+      <c r="I355" s="9" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
       <c r="J355" s="9" t="n"/>
-      <c r="K355" s="9" t="n"/>
+      <c r="K355" s="9" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
       <c r="L355" s="24" t="n"/>
-      <c r="M355" s="24" t="n"/>
+      <c r="M355" s="24" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N355" s="29" t="n"/>
       <c r="O355" s="29" t="n"/>
       <c r="P355" s="29" t="n"/>
       <c r="Q355" s="29" t="n"/>
     </row>
     <row r="356">
-      <c r="A356" s="9" t="n"/>
-      <c r="B356" s="9" t="n"/>
-      <c r="C356" s="9" t="n"/>
-      <c r="D356" s="9" t="n"/>
-      <c r="E356" s="9" t="n"/>
+      <c r="A356" s="9" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B356" s="9" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C356" s="9" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D356" s="9" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E356" s="9" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
       <c r="F356" s="9" t="n"/>
       <c r="G356" s="9" t="n"/>
       <c r="H356" s="9" t="n"/>
-      <c r="I356" s="9" t="n"/>
+      <c r="I356" s="9" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
       <c r="J356" s="9" t="n"/>
-      <c r="K356" s="9" t="n"/>
+      <c r="K356" s="9" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
       <c r="L356" s="26" t="n"/>
-      <c r="M356" s="26" t="n"/>
+      <c r="M356" s="26" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
       <c r="N356" s="31" t="n"/>
       <c r="O356" s="31" t="n"/>
       <c r="P356" s="31" t="n"/>
       <c r="Q356" s="31" t="n"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2000-2012</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Measuring and modelling seasonal variation of carbon dioxide and water vapour exchange of a Pinus ponderosa forest subject to soil water deficit</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>49°9N</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>$!° "°°#,%°° (°*,° 1°# ;°;° G°% °°%°°&amp;°°"°   °* ,*°$°°°#° $!° %°,°!°°## *°°°$! 1°# #°$ °$ 49°9N °.  °°°)&amp; !°°°!$ °°° E°%° )*°°°</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Pervasive effects of drought on tree growth across a wide climatic gradient in the temperate forests of the Caucasus</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>Figure S5. Correlation coefficients for standardized precipitation evapotranspiration index  (SPEI) between previous year July (Jul) and current October (OCT) for the time scales of  1, 3, 6 and 12 months between 1930 and 2009 or to the end of each series. Empty circles  and black dots signal coefficients that are significant at p ≤ 0.05 and at p ≤ 0.1, O C T Figure S5. Correlation coefficients for standardized precipitation evapotranspiration index  (SPEI) between previous year July (Jul) and current October (OCT) for the time scales of  1, 3, 6 and 12 months between 1930 and 2009 or to the end of each series. Empty circles See discussions, stats, and author profiles for this publication at: https://www.researchgate.net/publication/327435793 Pervasive effects of drought on tree growth across a wide climatic gradient in the temperate forests of the Caucasus Article  in  Global Ecology and Biogeography · September 2018</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>4314402900N, 313504500E</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>47°03′00°N, 84°25′00°W</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Beyond refuges Identifying temporally dynamic havens to support ecological resistance and resilience to climatic disturbances</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>2.1. Study system The study region is the river red-gum ﬂoodplain forests of the Murray River, in Victoria and New South Wales, southeastern Australia. This ecosystem consists of open forest and woodlands dominated by the</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>1961-1990, 2003-2010</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2003-2010</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>tellite-derived variables, validated with on-ground measurements of tree-stand condition (leaf area index, percentage of crown branching structure with live foliage and percentage live basal area), which are linked to physiological stress in E. camaldulensis (Cunningham et al., Keywords: Drought Fauna Forest condition lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand cords (Leblanc et al., 2012). A sustained positive epoch for the Southern Annual Mode and multiple El Niño events caused below-average rain- fall during this period (Murphy and Timbal, 2008; Verdon-Kidd and Kiem, 2009). Unprecedented reductions in run-oﬀ signiﬁcantly reduced lensis) ﬂoodplain forests of the Murray River, southeastern Australia. We tracked forest-stand condition of river red-gum forests during and after a prolonged drought (the Big Dry) using models based on remotely sensed data and ground-truthed vegetation measurements of forest-stand condition. Native birds and small mammals re- spond positively to stand condition. We used spatial optimization to rank the region based on forest-stand</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>index, drought, big dry, El Niño, Big Dry</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Branchfall dominates annual carbon flux across lowland Amazonian forests</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Study landscapes We selected 12 landscapes distributed across a 1600 km longitudinal gradient of lowland tropical forests from northwest to southwest Amazonia (ﬁgure 1(A);</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of the landscapes have a 2010 SPEI value below −1, calculated mean dry-season (July–September) stan- dardized precipitation evapotranspiration index (SPEI) (Vicente Serrano et al 2010) values extracted from SPEIbase (Beguería et al 2010) (table S2). None of pool, branchfall, is an ecologically important dynamic with links to nutrient cycling, forest productivity, and drought. Identifying and quantifying branchfall over large areas would reveal the role of branchfall in carbon and nutrient cycling. Using data from repeat airborne light detection and ranging campaigns across a wide array of lowland Amazonian forest landscapes totaling nearly</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Coupled Hydro-Climatic Signals in the Radial Growth of Oaks Benefitting from Groundwater Availability</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>17.22◦ E, 46.32◦ N</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>2.1. Study Area The Szenta Forest, representing the study area, lies around the village of Kaszó (ca. 46.32◦ N 17.22◦ E) at a lower elevation part of the Transdanubian region in southwest-</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>1903-2001, 1920-2017, 1920-2019, 1935-1995, 1943-1972, 1948-2017, 1960-1989, 1961-1990, 1961-2010, 1961-2017, 1981-2010, 2013-2018</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>1961, 1961-2017</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Observational</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>the closest grid point to the study area. Combining these two climate data sources, the standardized precipitation and evapotranspiration index (SPEI) series [44] were also com- puted using the SPEI package [45] under the R statistical programming environment [46], where potential evapotranspiration was computed using the Thornthwaite equation [47]. detrended series were further checked for autocorrelation, as reported previously in the radial growth of oaks [37,38]. Autoregressive models were ﬁt to the primary index series by using the ARSTAN software, calculating the Akaike information criterion (AIC) for each autoregressive order. However, the procedure did not suggest the need for further of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season of the studied trees showed the strongest relationship with late winter and early spring groundwater and drought conditions preceding the growing season, differing from the commonly reported climatic signals marked by early summer meteorological conditions of the vegetation season. The results suggest that the groundwater recharge during the dormant period preceding the vegetation season</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought, drought conditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Dynamic responses of tree-ring growth to drought over Loess Plateau in the past three decades</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>2.1. Study area  The  Loess  Plateau  is  a  typical  area  in  which  the  Grain  for  Green  project has been implemented in China. This region has an arid conti- ◦</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>1961-2012, 1990-2018, 1990-2020, 1991-2000, 1991-2020, 2001-2010, 2011-2020</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>1961, 1961-2012, 2000, 2012</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Observational, Modeling</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate However,  these  indices  cannot  satisfactorily  capture  the  drought  responses  of  vegetation  in  wet  regions.  Furthermore, the PDSI was more accurate than the SPEI at capturing the effects of drought on radial vegetation  growth.  Understanding the response mechanism of  the radial growth of  Chinese pine to  drought can  provide  theoretical  support  for  ecological  protection,  forest  management,  and  ecological  construction  under  climate Taxon 46 (3), 604–605. https://doi.org/10.2307/1224418.  Schrier, V.D., Barichivich, Briffa, R.K., Jones, D.P., 2013. A scPDSI-based global data set  of dry and wet spells for 1901-2009. J. Geophy. Res. 118(10): 4025-4048. DOI:  10.1002/jgrd.50355. social economic drought (Liu et al., 2015). In addition, different kinds of  drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index precipitation  (P),  relative  humidity  (RH),  and  vapor  pressure  deficit  (VPD). We used the above data to calculate the net radiation (Rn), and  the detailed processes can be found in the FAO (1998) data. The dis- tribution of the multiyear monthly mean of T, P, RH, VPD, and Rn of zero  with  decreasing  precipitation.  This  indicates  that  the  growth  of  Chinese pine was mainly limited by low precipitation. In addition, the  tree  radial  growth  was  positively  correlated  with  precipitation  in  the  previous September to December (P9–12) (Fig. 5), which may have been Original Articles  Dynamic responses of tree-ring growth to drought over Loess Plateau in the  past three decades  Ai Wang a, b, Xuerui Gao c, *, Zeyu Zhou a, b, Hao Yang a, b, Xuehua Zhao d, Yuemeng Wang a,b, drought  often  occur  at  the  same  time,  and  a  single  drought  index  is  difficult to accurately describe the complex drought conditions. Thus, it  is necessary to construct a multi-variable comprehensive drought index  to analyze the drought conditions (Su et al., 2019). Researchers have</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>SPEI, PDSI, scPDSI, index, VPD, low precipitation, drought, drought conditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Lessons learned from applying a forest gap model to understand ecosystem and carbon dynamics of complex tropical forests</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2000-2012</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>Köhler,  P.,  Huth,  A.,  2010.  Towards  ground-truthing  of  spaceborne  estimates  of above-ground  life  biomass  and  leaf  area  index  in  tropical  rain  forests.  Biogeo- sciences  7,  2531–2543. Laurance,  W.F.,  Camargo,  J.L.C.,  Luizao,  R.C.C.,  Laurance,  S.G.,  Pimm,  S.L.,  Bruna,  E.M., to   reduce   complexity   in   vegetation   models,   (2)   structural   realism   was  necessary   to  analyze   impacts   of natural   and   anthropogenic   disturbances   such   as  logging,   fragmentation,   or   drought,   and   (3)   complex ecological   processes   such   as   carbon   ﬂuxes   in   tropical   forests   –  starting   from   the   individual   tree   level   up to   the  entire   forest   ecosystem   –  can   be  explored   as   a  function   of   forest   structure,   species   composition</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Measuring and modelling seasonal variation of carbon dioxide and water vapour exchange of a Pinus ponderosa forest subject to soil water deficit</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>49°9N</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>$!° "°°#,%°° (°*,° 1°# ;°;° G°% °°%°°&amp;°°"°   °* ,*°$°°°#° $!° %°,°!°°## *°°°$! 1°# #°$ °$ 49°9N °.  °°°)&amp; !°°°!$ °°° E°%° )*°°°</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Pervasive effects of drought on tree growth across a wide climatic gradient in the temperate forests of the Caucasus</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>No coordinates found/given</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>Figure S5. Correlation coefficients for standardized precipitation evapotranspiration index  (SPEI) between previous year July (Jul) and current October (OCT) for the time scales of  1, 3, 6 and 12 months between 1930 and 2009 or to the end of each series. Empty circles  and black dots signal coefficients that are significant at p ≤ 0.05 and at p ≤ 0.1, O C T Figure S5. Correlation coefficients for standardized precipitation evapotranspiration index  (SPEI) between previous year July (Jul) and current October (OCT) for the time scales of  1, 3, 6 and 12 months between 1930 and 2009 or to the end of each series. Empty circles See discussions, stats, and author profiles for this publication at: https://www.researchgate.net/publication/327435793 Pervasive effects of drought on tree growth across a wide climatic gradient in the temperate forests of the Caucasus Article  in  Global Ecology and Biogeography · September 2018</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>SPEI, index, drought</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Phenological responses to extreme droughts in a Mediterranean forest</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>313504500E, 4314402900N</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>r 2010 Blackwell Publishing Ltd, Global Change Biology, 17, 1036–1048 1038 L . M I S S O N et al. France (313504500E, 4314402900N; 270 m asl) (Rambal et al., 2003,</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>1984-2008, 2007-2009</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2006, 2009</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>8170 stems ha°1, the mean diameter at breast height was 7 cm and the leaf area index was 2.8 m2 m°2. The area has a Mediterranean-type climate, with 80% of rainfall occurring between September and April. The mean annual precipitation produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to produced by the below-canopy troughs, which reduced available top soil water content by only 15% relative to a control plot. To date, no study has examined the phe- nological impacts of extreme droughts, as expected to unambiguous results. Hanson et al. (2003b) showed that 33% throughfall exclusion had no discernable effects on leaf emergence and canopy development in a temperate mixed deciduous forest. Results from Ogaya &amp; Penue- Abstract Mediterranean regions are projected to experience more frequent, prolonged and severe drought as a consequence of climate change. We used a retractable rainfall shelter, to investigate the impact of extreme droughts on the development of Quercus ilex leaves, ﬂowers and fruit. In 2008, 97% of rainfall was excluded from a forest plot during In this study, we examine the impact of experimentally induced extreme drought conditions on the timing and success of leaf, ﬂower and seed development in a natural Quercus ilex L. (holm oak) stand at the Pue´cha- 2008, before LD treatment (Fig. 2). It decreased in the three plots during a dry period near the end of June. Small summer rainfall events in July, August and September 2008 increased water content in the control</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>index, soil water content, soil water content, throughfall exclusion, drought, drought conditions, dry period</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Regulation of nitrate-N release from temperate forests A test of the N flushing hypothesis</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>47°03′00°N, 84°25′00°W</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>the canopy was dominated by sugar maple, the canopy lifeform Figure 4. Location of the Turkey Lakes Watershed (cen- tered at 47°03′00°N and 84°25′00°W). The analyses presented</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>1980-1985, 1981-1990, 1982-1983, 1986-1990, 1988-1989</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>1982, 1982-1983, 1988, 1988-1989</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>Regional Hydro-Ecological Simulation System to simulate water, carbon, and N dynamics. A N ﬂushing index was modeled as S/S 30, the ratio of the current day saturation deﬁcit to the previous 30-day average saturation deﬁcit. A N source index was modeled as the ratio of N supply/demand. The relationship between the simulated N indices and the observed radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. ° ° DL ag a VPD g a g c mained near saturation during the winter. In contrast, if there was low precipitation during the previous autumn, the soils remained drier during the winter. In summer all years experi- enced a signiﬁcant increase in saturation deﬁcits, with the radiation (PAR), air temperature, vapor pressure deﬁcit, and soil water content). VPD vapor pressure deﬁcit from canopy to air, mbar. ° psychrometric constant, mbar °C°1. summer and early autumn ﬂushings. For example, during a dry summer in which a long dry period is followed by a short wet period, the recessional limb of the soil saturation deﬁcit of the hydrological event may be incorrectly identiﬁed as ﬂushing</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>index, soil water content, VPD, low precipitation, soil water content, dry period</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>The Potential of EnMAP and Sentinel-2 Data for Detecting Drought Stress Phenomena in Deciduous Forest Communities</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>49.62°N, 7.92°E</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2.1. Study Area   The  study  area  is  located  in  the  Donnersberg  region  in  the  German  state  of  Rhineland-Palatinate  (RLP) (49.62°N, 7.92°E, Figure 1). As more than 40% of RLP is covered by forests it is one of most</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>1931-1960</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Modeling</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>canopy gaps, shaded crown areas and non-deciduous species, potentially indicative spectral  indices,  the  Photochemical  Reflectance  Index  (PRI),  Moisture  Stress  Index  (MSI),  Normalized Difference Water Index (NDWI), and Chlorophyll Index (CI), were analyzed  with  respect  to  available  maps  of  site-specific  soil  moisture  regimes.  PRI  provided  an The Potential of EnMAP and Sentinel-2 Data for Detecting  Drought Stress Phenomena in Deciduous Forest Communities   Sandra Dotzler *, Joachim Hill, Henning Buddenbaum and Johannes Stoffels   Environmental Remote Sensing and Geoinformatics, University of Trier, Behringstr. 21,</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>index, drought</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
